--- a/docs/tutorials/data-modeling/wind-farm-data-model.xlsx
+++ b/docs/tutorials/data-modeling/wind-farm-data-model.xlsx
@@ -19,6 +19,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CDMEnum" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CDMNodes" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CDMMetadata" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_helper" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +545,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeatOrg enterprise data model</t>
+          <t>CopyOf enterprise data model</t>
         </is>
       </c>
     </row>
@@ -679,7 +680,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -696,7 +697,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -713,7 +714,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -730,129 +731,119 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CogniteAnnotation.status</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Suggested</t>
+          <t>Queued</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Suggested</t>
+          <t>Queued</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CogniteAnnotation.status</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Processing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CogniteAnnotation.status</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CognitePointCloudVolume.volumeType</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cylinder</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cylinder</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CognitePointCloudVolume.volumeType</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Box</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Box</t>
+          <t>CAD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CogniteTimeSeries.type</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>PointCloud</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Time series with string data points.</t>
+          <t>PointCloud</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CogniteTimeSeries.type</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>Image360</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Time series with double floating point data points.</t>
+          <t>Image360</t>
         </is>
       </c>
     </row>
@@ -876,119 +867,129 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>CogniteTimeSeries.type</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Time series with string data points.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>CogniteTimeSeries.type</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PointCloud</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PointCloud</t>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Time series with double floating point data points.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>CognitePointCloudVolume.volumeType</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Image360</t>
+          <t>Cylinder</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Image360</t>
+          <t>Cylinder</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CognitePointCloudVolume.volumeType</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>Box</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>Box</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CogniteAnnotation.status</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Suggested</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Suggested</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CogniteAnnotation.status</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Approved</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CogniteAnnotation.status</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1204,6 +1205,1538 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <f>IF(ISBLANK(Views!A3), "", Views!A3)</f>
+        <v/>
+      </c>
+      <c r="B1">
+        <f>IF(ISBLANK(Containers!A3), "", Containers!A3)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <f>IF(ISBLANK(Views!A4), "", Views!A4)</f>
+        <v/>
+      </c>
+      <c r="B2">
+        <f>IF(ISBLANK(Containers!A4), "", Containers!A4)</f>
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>float32</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <f>IF(ISBLANK(Views!A5), "", Views!A5)</f>
+        <v/>
+      </c>
+      <c r="B3">
+        <f>IF(ISBLANK(Containers!A5), "", Containers!A5)</f>
+        <v/>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <f>IF(ISBLANK(Views!A6), "", Views!A6)</f>
+        <v/>
+      </c>
+      <c r="B4">
+        <f>IF(ISBLANK(Containers!A6), "", Containers!A6)</f>
+        <v/>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>int32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <f>IF(ISBLANK(Views!A7), "", Views!A7)</f>
+        <v/>
+      </c>
+      <c r="B5">
+        <f>IF(ISBLANK(Containers!A7), "", Containers!A7)</f>
+        <v/>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <f>IF(ISBLANK(Views!A8), "", Views!A8)</f>
+        <v/>
+      </c>
+      <c r="B6">
+        <f>IF(ISBLANK(Containers!A8), "", Containers!A8)</f>
+        <v/>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>IF(ISBLANK(Views!A9), "", Views!A9)</f>
+        <v/>
+      </c>
+      <c r="B7">
+        <f>IF(ISBLANK(Containers!A9), "", Containers!A9)</f>
+        <v/>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <f>IF(ISBLANK(Views!A10), "", Views!A10)</f>
+        <v/>
+      </c>
+      <c r="B8">
+        <f>IF(ISBLANK(Containers!A10), "", Containers!A10)</f>
+        <v/>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <f>IF(ISBLANK(Views!A11), "", Views!A11)</f>
+        <v/>
+      </c>
+      <c r="B9">
+        <f>IF(ISBLANK(Containers!A11), "", Containers!A11)</f>
+        <v/>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>timeseries</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <f>IF(ISBLANK(Views!A12), "", Views!A12)</f>
+        <v/>
+      </c>
+      <c r="B10">
+        <f>IF(ISBLANK(Containers!A12), "", Containers!A12)</f>
+        <v/>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <f>IF(ISBLANK(Views!A13), "", Views!A13)</f>
+        <v/>
+      </c>
+      <c r="B11">
+        <f>IF(ISBLANK(Containers!A13), "", Containers!A13)</f>
+        <v/>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sequence</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <f>IF(ISBLANK(Views!A14), "", Views!A14)</f>
+        <v/>
+      </c>
+      <c r="B12">
+        <f>IF(ISBLANK(Containers!A14), "", Containers!A14)</f>
+        <v/>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <f>IF(ISBLANK(Views!A15), "", Views!A15)</f>
+        <v/>
+      </c>
+      <c r="B13">
+        <f>IF(ISBLANK(Containers!A15), "", Containers!A15)</f>
+        <v/>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <f>IF(ISBLANK(Views!A16), "", Views!A16)</f>
+        <v/>
+      </c>
+      <c r="B14">
+        <f>IF(ISBLANK(Containers!A16), "", Containers!A16)</f>
+        <v/>
+      </c>
+      <c r="C14">
+        <f>IF(ISBLANK(Views!A3), "", Views!A3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <f>IF(ISBLANK(Views!A17), "", Views!A17)</f>
+        <v/>
+      </c>
+      <c r="B15">
+        <f>IF(ISBLANK(Containers!A17), "", Containers!A17)</f>
+        <v/>
+      </c>
+      <c r="C15">
+        <f>IF(ISBLANK(Views!A4), "", Views!A4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <f>IF(ISBLANK(Views!A18), "", Views!A18)</f>
+        <v/>
+      </c>
+      <c r="B16">
+        <f>IF(ISBLANK(Containers!A18), "", Containers!A18)</f>
+        <v/>
+      </c>
+      <c r="C16">
+        <f>IF(ISBLANK(Views!A5), "", Views!A5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <f>IF(ISBLANK(Views!A19), "", Views!A19)</f>
+        <v/>
+      </c>
+      <c r="B17">
+        <f>IF(ISBLANK(Containers!A19), "", Containers!A19)</f>
+        <v/>
+      </c>
+      <c r="C17">
+        <f>IF(ISBLANK(Views!A6), "", Views!A6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <f>IF(ISBLANK(Views!A20), "", Views!A20)</f>
+        <v/>
+      </c>
+      <c r="B18">
+        <f>IF(ISBLANK(Containers!A20), "", Containers!A20)</f>
+        <v/>
+      </c>
+      <c r="C18">
+        <f>IF(ISBLANK(Views!A7), "", Views!A7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <f>IF(ISBLANK(Views!A21), "", Views!A21)</f>
+        <v/>
+      </c>
+      <c r="B19">
+        <f>IF(ISBLANK(Containers!A21), "", Containers!A21)</f>
+        <v/>
+      </c>
+      <c r="C19">
+        <f>IF(ISBLANK(Views!A8), "", Views!A8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <f>IF(ISBLANK(Views!A22), "", Views!A22)</f>
+        <v/>
+      </c>
+      <c r="B20">
+        <f>IF(ISBLANK(Containers!A22), "", Containers!A22)</f>
+        <v/>
+      </c>
+      <c r="C20">
+        <f>IF(ISBLANK(Views!A9), "", Views!A9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <f>IF(ISBLANK(Views!A23), "", Views!A23)</f>
+        <v/>
+      </c>
+      <c r="B21">
+        <f>IF(ISBLANK(Containers!A23), "", Containers!A23)</f>
+        <v/>
+      </c>
+      <c r="C21">
+        <f>IF(ISBLANK(Views!A10), "", Views!A10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <f>IF(ISBLANK(Views!A24), "", Views!A24)</f>
+        <v/>
+      </c>
+      <c r="B22">
+        <f>IF(ISBLANK(Containers!A24), "", Containers!A24)</f>
+        <v/>
+      </c>
+      <c r="C22">
+        <f>IF(ISBLANK(Views!A11), "", Views!A11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <f>IF(ISBLANK(Views!A25), "", Views!A25)</f>
+        <v/>
+      </c>
+      <c r="B23">
+        <f>IF(ISBLANK(Containers!A25), "", Containers!A25)</f>
+        <v/>
+      </c>
+      <c r="C23">
+        <f>IF(ISBLANK(Views!A12), "", Views!A12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <f>IF(ISBLANK(Views!A26), "", Views!A26)</f>
+        <v/>
+      </c>
+      <c r="B24">
+        <f>IF(ISBLANK(Containers!A26), "", Containers!A26)</f>
+        <v/>
+      </c>
+      <c r="C24">
+        <f>IF(ISBLANK(Views!A13), "", Views!A13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <f>IF(ISBLANK(Views!A27), "", Views!A27)</f>
+        <v/>
+      </c>
+      <c r="B25">
+        <f>IF(ISBLANK(Containers!A27), "", Containers!A27)</f>
+        <v/>
+      </c>
+      <c r="C25">
+        <f>IF(ISBLANK(Views!A14), "", Views!A14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <f>IF(ISBLANK(Views!A28), "", Views!A28)</f>
+        <v/>
+      </c>
+      <c r="B26">
+        <f>IF(ISBLANK(Containers!A28), "", Containers!A28)</f>
+        <v/>
+      </c>
+      <c r="C26">
+        <f>IF(ISBLANK(Views!A15), "", Views!A15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <f>IF(ISBLANK(Views!A29), "", Views!A29)</f>
+        <v/>
+      </c>
+      <c r="B27">
+        <f>IF(ISBLANK(Containers!A29), "", Containers!A29)</f>
+        <v/>
+      </c>
+      <c r="C27">
+        <f>IF(ISBLANK(Views!A16), "", Views!A16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <f>IF(ISBLANK(Views!A30), "", Views!A30)</f>
+        <v/>
+      </c>
+      <c r="B28">
+        <f>IF(ISBLANK(Containers!A30), "", Containers!A30)</f>
+        <v/>
+      </c>
+      <c r="C28">
+        <f>IF(ISBLANK(Views!A17), "", Views!A17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <f>IF(ISBLANK(Views!A31), "", Views!A31)</f>
+        <v/>
+      </c>
+      <c r="B29">
+        <f>IF(ISBLANK(Containers!A31), "", Containers!A31)</f>
+        <v/>
+      </c>
+      <c r="C29">
+        <f>IF(ISBLANK(Views!A18), "", Views!A18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <f>IF(ISBLANK(Views!A32), "", Views!A32)</f>
+        <v/>
+      </c>
+      <c r="B30">
+        <f>IF(ISBLANK(Containers!A32), "", Containers!A32)</f>
+        <v/>
+      </c>
+      <c r="C30">
+        <f>IF(ISBLANK(Views!A19), "", Views!A19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <f>IF(ISBLANK(Views!A33), "", Views!A33)</f>
+        <v/>
+      </c>
+      <c r="B31">
+        <f>IF(ISBLANK(Containers!A33), "", Containers!A33)</f>
+        <v/>
+      </c>
+      <c r="C31">
+        <f>IF(ISBLANK(Views!A20), "", Views!A20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <f>IF(ISBLANK(Views!A34), "", Views!A34)</f>
+        <v/>
+      </c>
+      <c r="B32">
+        <f>IF(ISBLANK(Containers!A34), "", Containers!A34)</f>
+        <v/>
+      </c>
+      <c r="C32">
+        <f>IF(ISBLANK(Views!A21), "", Views!A21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <f>IF(ISBLANK(Views!A35), "", Views!A35)</f>
+        <v/>
+      </c>
+      <c r="B33">
+        <f>IF(ISBLANK(Containers!A35), "", Containers!A35)</f>
+        <v/>
+      </c>
+      <c r="C33">
+        <f>IF(ISBLANK(Views!A22), "", Views!A22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <f>IF(ISBLANK(Views!A36), "", Views!A36)</f>
+        <v/>
+      </c>
+      <c r="B34">
+        <f>IF(ISBLANK(Containers!A36), "", Containers!A36)</f>
+        <v/>
+      </c>
+      <c r="C34">
+        <f>IF(ISBLANK(Views!A23), "", Views!A23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <f>IF(ISBLANK(Views!A37), "", Views!A37)</f>
+        <v/>
+      </c>
+      <c r="B35">
+        <f>IF(ISBLANK(Containers!A37), "", Containers!A37)</f>
+        <v/>
+      </c>
+      <c r="C35">
+        <f>IF(ISBLANK(Views!A24), "", Views!A24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <f>IF(ISBLANK(Views!A38), "", Views!A38)</f>
+        <v/>
+      </c>
+      <c r="B36">
+        <f>IF(ISBLANK(Containers!A38), "", Containers!A38)</f>
+        <v/>
+      </c>
+      <c r="C36">
+        <f>IF(ISBLANK(Views!A25), "", Views!A25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <f>IF(ISBLANK(Views!A39), "", Views!A39)</f>
+        <v/>
+      </c>
+      <c r="B37">
+        <f>IF(ISBLANK(Containers!A39), "", Containers!A39)</f>
+        <v/>
+      </c>
+      <c r="C37">
+        <f>IF(ISBLANK(Views!A26), "", Views!A26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <f>IF(ISBLANK(Views!A40), "", Views!A40)</f>
+        <v/>
+      </c>
+      <c r="B38">
+        <f>IF(ISBLANK(Containers!A40), "", Containers!A40)</f>
+        <v/>
+      </c>
+      <c r="C38">
+        <f>IF(ISBLANK(Views!A27), "", Views!A27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <f>IF(ISBLANK(Views!A41), "", Views!A41)</f>
+        <v/>
+      </c>
+      <c r="B39">
+        <f>IF(ISBLANK(Containers!A41), "", Containers!A41)</f>
+        <v/>
+      </c>
+      <c r="C39">
+        <f>IF(ISBLANK(Views!A28), "", Views!A28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <f>IF(ISBLANK(Views!A42), "", Views!A42)</f>
+        <v/>
+      </c>
+      <c r="B40">
+        <f>IF(ISBLANK(Containers!A42), "", Containers!A42)</f>
+        <v/>
+      </c>
+      <c r="C40">
+        <f>IF(ISBLANK(Views!A29), "", Views!A29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <f>IF(ISBLANK(Views!A43), "", Views!A43)</f>
+        <v/>
+      </c>
+      <c r="B41">
+        <f>IF(ISBLANK(Containers!A43), "", Containers!A43)</f>
+        <v/>
+      </c>
+      <c r="C41">
+        <f>IF(ISBLANK(Views!A30), "", Views!A30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <f>IF(ISBLANK(Views!A44), "", Views!A44)</f>
+        <v/>
+      </c>
+      <c r="B42">
+        <f>IF(ISBLANK(Containers!A44), "", Containers!A44)</f>
+        <v/>
+      </c>
+      <c r="C42">
+        <f>IF(ISBLANK(Views!A31), "", Views!A31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <f>IF(ISBLANK(Views!A45), "", Views!A45)</f>
+        <v/>
+      </c>
+      <c r="B43">
+        <f>IF(ISBLANK(Containers!A45), "", Containers!A45)</f>
+        <v/>
+      </c>
+      <c r="C43">
+        <f>IF(ISBLANK(Views!A32), "", Views!A32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <f>IF(ISBLANK(Views!A46), "", Views!A46)</f>
+        <v/>
+      </c>
+      <c r="B44">
+        <f>IF(ISBLANK(Containers!A46), "", Containers!A46)</f>
+        <v/>
+      </c>
+      <c r="C44">
+        <f>IF(ISBLANK(Views!A33), "", Views!A33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <f>IF(ISBLANK(Views!A47), "", Views!A47)</f>
+        <v/>
+      </c>
+      <c r="B45">
+        <f>IF(ISBLANK(Containers!A47), "", Containers!A47)</f>
+        <v/>
+      </c>
+      <c r="C45">
+        <f>IF(ISBLANK(Views!A34), "", Views!A34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <f>IF(ISBLANK(Views!A48), "", Views!A48)</f>
+        <v/>
+      </c>
+      <c r="B46">
+        <f>IF(ISBLANK(Containers!A48), "", Containers!A48)</f>
+        <v/>
+      </c>
+      <c r="C46">
+        <f>IF(ISBLANK(Views!A35), "", Views!A35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <f>IF(ISBLANK(Views!A49), "", Views!A49)</f>
+        <v/>
+      </c>
+      <c r="B47">
+        <f>IF(ISBLANK(Containers!A49), "", Containers!A49)</f>
+        <v/>
+      </c>
+      <c r="C47">
+        <f>IF(ISBLANK(Views!A36), "", Views!A36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <f>IF(ISBLANK(Views!A50), "", Views!A50)</f>
+        <v/>
+      </c>
+      <c r="B48">
+        <f>IF(ISBLANK(Containers!A50), "", Containers!A50)</f>
+        <v/>
+      </c>
+      <c r="C48">
+        <f>IF(ISBLANK(Views!A37), "", Views!A37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <f>IF(ISBLANK(Views!A51), "", Views!A51)</f>
+        <v/>
+      </c>
+      <c r="B49">
+        <f>IF(ISBLANK(Containers!A51), "", Containers!A51)</f>
+        <v/>
+      </c>
+      <c r="C49">
+        <f>IF(ISBLANK(Views!A38), "", Views!A38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <f>IF(ISBLANK(Views!A52), "", Views!A52)</f>
+        <v/>
+      </c>
+      <c r="B50">
+        <f>IF(ISBLANK(Containers!A52), "", Containers!A52)</f>
+        <v/>
+      </c>
+      <c r="C50">
+        <f>IF(ISBLANK(Views!A39), "", Views!A39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <f>IF(ISBLANK(Views!A53), "", Views!A53)</f>
+        <v/>
+      </c>
+      <c r="B51">
+        <f>IF(ISBLANK(Containers!A53), "", Containers!A53)</f>
+        <v/>
+      </c>
+      <c r="C51">
+        <f>IF(ISBLANK(Views!A40), "", Views!A40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <f>IF(ISBLANK(Views!A54), "", Views!A54)</f>
+        <v/>
+      </c>
+      <c r="B52">
+        <f>IF(ISBLANK(Containers!A54), "", Containers!A54)</f>
+        <v/>
+      </c>
+      <c r="C52">
+        <f>IF(ISBLANK(Views!A41), "", Views!A41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <f>IF(ISBLANK(Views!A55), "", Views!A55)</f>
+        <v/>
+      </c>
+      <c r="B53">
+        <f>IF(ISBLANK(Containers!A55), "", Containers!A55)</f>
+        <v/>
+      </c>
+      <c r="C53">
+        <f>IF(ISBLANK(Views!A42), "", Views!A42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <f>IF(ISBLANK(Views!A56), "", Views!A56)</f>
+        <v/>
+      </c>
+      <c r="B54">
+        <f>IF(ISBLANK(Containers!A56), "", Containers!A56)</f>
+        <v/>
+      </c>
+      <c r="C54">
+        <f>IF(ISBLANK(Views!A43), "", Views!A43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <f>IF(ISBLANK(Views!A57), "", Views!A57)</f>
+        <v/>
+      </c>
+      <c r="B55">
+        <f>IF(ISBLANK(Containers!A57), "", Containers!A57)</f>
+        <v/>
+      </c>
+      <c r="C55">
+        <f>IF(ISBLANK(Views!A44), "", Views!A44)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <f>IF(ISBLANK(Views!A58), "", Views!A58)</f>
+        <v/>
+      </c>
+      <c r="B56">
+        <f>IF(ISBLANK(Containers!A58), "", Containers!A58)</f>
+        <v/>
+      </c>
+      <c r="C56">
+        <f>IF(ISBLANK(Views!A45), "", Views!A45)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <f>IF(ISBLANK(Views!A59), "", Views!A59)</f>
+        <v/>
+      </c>
+      <c r="B57">
+        <f>IF(ISBLANK(Containers!A59), "", Containers!A59)</f>
+        <v/>
+      </c>
+      <c r="C57">
+        <f>IF(ISBLANK(Views!A46), "", Views!A46)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <f>IF(ISBLANK(Views!A60), "", Views!A60)</f>
+        <v/>
+      </c>
+      <c r="B58">
+        <f>IF(ISBLANK(Containers!A60), "", Containers!A60)</f>
+        <v/>
+      </c>
+      <c r="C58">
+        <f>IF(ISBLANK(Views!A47), "", Views!A47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <f>IF(ISBLANK(Views!A61), "", Views!A61)</f>
+        <v/>
+      </c>
+      <c r="B59">
+        <f>IF(ISBLANK(Containers!A61), "", Containers!A61)</f>
+        <v/>
+      </c>
+      <c r="C59">
+        <f>IF(ISBLANK(Views!A48), "", Views!A48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <f>IF(ISBLANK(Views!A62), "", Views!A62)</f>
+        <v/>
+      </c>
+      <c r="B60">
+        <f>IF(ISBLANK(Containers!A62), "", Containers!A62)</f>
+        <v/>
+      </c>
+      <c r="C60">
+        <f>IF(ISBLANK(Views!A49), "", Views!A49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <f>IF(ISBLANK(Views!A63), "", Views!A63)</f>
+        <v/>
+      </c>
+      <c r="B61">
+        <f>IF(ISBLANK(Containers!A63), "", Containers!A63)</f>
+        <v/>
+      </c>
+      <c r="C61">
+        <f>IF(ISBLANK(Views!A50), "", Views!A50)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <f>IF(ISBLANK(Views!A64), "", Views!A64)</f>
+        <v/>
+      </c>
+      <c r="B62">
+        <f>IF(ISBLANK(Containers!A64), "", Containers!A64)</f>
+        <v/>
+      </c>
+      <c r="C62">
+        <f>IF(ISBLANK(Views!A51), "", Views!A51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <f>IF(ISBLANK(Views!A65), "", Views!A65)</f>
+        <v/>
+      </c>
+      <c r="B63">
+        <f>IF(ISBLANK(Containers!A65), "", Containers!A65)</f>
+        <v/>
+      </c>
+      <c r="C63">
+        <f>IF(ISBLANK(Views!A52), "", Views!A52)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <f>IF(ISBLANK(Views!A66), "", Views!A66)</f>
+        <v/>
+      </c>
+      <c r="B64">
+        <f>IF(ISBLANK(Containers!A66), "", Containers!A66)</f>
+        <v/>
+      </c>
+      <c r="C64">
+        <f>IF(ISBLANK(Views!A53), "", Views!A53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <f>IF(ISBLANK(Views!A67), "", Views!A67)</f>
+        <v/>
+      </c>
+      <c r="B65">
+        <f>IF(ISBLANK(Containers!A67), "", Containers!A67)</f>
+        <v/>
+      </c>
+      <c r="C65">
+        <f>IF(ISBLANK(Views!A54), "", Views!A54)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <f>IF(ISBLANK(Views!A68), "", Views!A68)</f>
+        <v/>
+      </c>
+      <c r="B66">
+        <f>IF(ISBLANK(Containers!A68), "", Containers!A68)</f>
+        <v/>
+      </c>
+      <c r="C66">
+        <f>IF(ISBLANK(Views!A55), "", Views!A55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <f>IF(ISBLANK(Views!A69), "", Views!A69)</f>
+        <v/>
+      </c>
+      <c r="B67">
+        <f>IF(ISBLANK(Containers!A69), "", Containers!A69)</f>
+        <v/>
+      </c>
+      <c r="C67">
+        <f>IF(ISBLANK(Views!A56), "", Views!A56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <f>IF(ISBLANK(Views!A70), "", Views!A70)</f>
+        <v/>
+      </c>
+      <c r="B68">
+        <f>IF(ISBLANK(Containers!A70), "", Containers!A70)</f>
+        <v/>
+      </c>
+      <c r="C68">
+        <f>IF(ISBLANK(Views!A57), "", Views!A57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <f>IF(ISBLANK(Views!A71), "", Views!A71)</f>
+        <v/>
+      </c>
+      <c r="B69">
+        <f>IF(ISBLANK(Containers!A71), "", Containers!A71)</f>
+        <v/>
+      </c>
+      <c r="C69">
+        <f>IF(ISBLANK(Views!A58), "", Views!A58)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <f>IF(ISBLANK(Views!A72), "", Views!A72)</f>
+        <v/>
+      </c>
+      <c r="B70">
+        <f>IF(ISBLANK(Containers!A72), "", Containers!A72)</f>
+        <v/>
+      </c>
+      <c r="C70">
+        <f>IF(ISBLANK(Views!A59), "", Views!A59)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <f>IF(ISBLANK(Views!A73), "", Views!A73)</f>
+        <v/>
+      </c>
+      <c r="B71">
+        <f>IF(ISBLANK(Containers!A73), "", Containers!A73)</f>
+        <v/>
+      </c>
+      <c r="C71">
+        <f>IF(ISBLANK(Views!A60), "", Views!A60)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <f>IF(ISBLANK(Views!A74), "", Views!A74)</f>
+        <v/>
+      </c>
+      <c r="B72">
+        <f>IF(ISBLANK(Containers!A74), "", Containers!A74)</f>
+        <v/>
+      </c>
+      <c r="C72">
+        <f>IF(ISBLANK(Views!A61), "", Views!A61)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <f>IF(ISBLANK(Views!A75), "", Views!A75)</f>
+        <v/>
+      </c>
+      <c r="B73">
+        <f>IF(ISBLANK(Containers!A75), "", Containers!A75)</f>
+        <v/>
+      </c>
+      <c r="C73">
+        <f>IF(ISBLANK(Views!A62), "", Views!A62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <f>IF(ISBLANK(Views!A76), "", Views!A76)</f>
+        <v/>
+      </c>
+      <c r="B74">
+        <f>IF(ISBLANK(Containers!A76), "", Containers!A76)</f>
+        <v/>
+      </c>
+      <c r="C74">
+        <f>IF(ISBLANK(Views!A63), "", Views!A63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <f>IF(ISBLANK(Views!A77), "", Views!A77)</f>
+        <v/>
+      </c>
+      <c r="B75">
+        <f>IF(ISBLANK(Containers!A77), "", Containers!A77)</f>
+        <v/>
+      </c>
+      <c r="C75">
+        <f>IF(ISBLANK(Views!A64), "", Views!A64)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <f>IF(ISBLANK(Views!A78), "", Views!A78)</f>
+        <v/>
+      </c>
+      <c r="B76">
+        <f>IF(ISBLANK(Containers!A78), "", Containers!A78)</f>
+        <v/>
+      </c>
+      <c r="C76">
+        <f>IF(ISBLANK(Views!A65), "", Views!A65)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <f>IF(ISBLANK(Views!A79), "", Views!A79)</f>
+        <v/>
+      </c>
+      <c r="B77">
+        <f>IF(ISBLANK(Containers!A79), "", Containers!A79)</f>
+        <v/>
+      </c>
+      <c r="C77">
+        <f>IF(ISBLANK(Views!A66), "", Views!A66)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <f>IF(ISBLANK(Views!A80), "", Views!A80)</f>
+        <v/>
+      </c>
+      <c r="B78">
+        <f>IF(ISBLANK(Containers!A80), "", Containers!A80)</f>
+        <v/>
+      </c>
+      <c r="C78">
+        <f>IF(ISBLANK(Views!A67), "", Views!A67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <f>IF(ISBLANK(Views!A81), "", Views!A81)</f>
+        <v/>
+      </c>
+      <c r="B79">
+        <f>IF(ISBLANK(Containers!A81), "", Containers!A81)</f>
+        <v/>
+      </c>
+      <c r="C79">
+        <f>IF(ISBLANK(Views!A68), "", Views!A68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <f>IF(ISBLANK(Views!A82), "", Views!A82)</f>
+        <v/>
+      </c>
+      <c r="B80">
+        <f>IF(ISBLANK(Containers!A82), "", Containers!A82)</f>
+        <v/>
+      </c>
+      <c r="C80">
+        <f>IF(ISBLANK(Views!A69), "", Views!A69)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <f>IF(ISBLANK(Views!A83), "", Views!A83)</f>
+        <v/>
+      </c>
+      <c r="B81">
+        <f>IF(ISBLANK(Containers!A83), "", Containers!A83)</f>
+        <v/>
+      </c>
+      <c r="C81">
+        <f>IF(ISBLANK(Views!A70), "", Views!A70)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <f>IF(ISBLANK(Views!A84), "", Views!A84)</f>
+        <v/>
+      </c>
+      <c r="B82">
+        <f>IF(ISBLANK(Containers!A84), "", Containers!A84)</f>
+        <v/>
+      </c>
+      <c r="C82">
+        <f>IF(ISBLANK(Views!A71), "", Views!A71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <f>IF(ISBLANK(Views!A85), "", Views!A85)</f>
+        <v/>
+      </c>
+      <c r="B83">
+        <f>IF(ISBLANK(Containers!A85), "", Containers!A85)</f>
+        <v/>
+      </c>
+      <c r="C83">
+        <f>IF(ISBLANK(Views!A72), "", Views!A72)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <f>IF(ISBLANK(Views!A86), "", Views!A86)</f>
+        <v/>
+      </c>
+      <c r="B84">
+        <f>IF(ISBLANK(Containers!A86), "", Containers!A86)</f>
+        <v/>
+      </c>
+      <c r="C84">
+        <f>IF(ISBLANK(Views!A73), "", Views!A73)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <f>IF(ISBLANK(Views!A87), "", Views!A87)</f>
+        <v/>
+      </c>
+      <c r="B85">
+        <f>IF(ISBLANK(Containers!A87), "", Containers!A87)</f>
+        <v/>
+      </c>
+      <c r="C85">
+        <f>IF(ISBLANK(Views!A74), "", Views!A74)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <f>IF(ISBLANK(Views!A88), "", Views!A88)</f>
+        <v/>
+      </c>
+      <c r="B86">
+        <f>IF(ISBLANK(Containers!A88), "", Containers!A88)</f>
+        <v/>
+      </c>
+      <c r="C86">
+        <f>IF(ISBLANK(Views!A75), "", Views!A75)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <f>IF(ISBLANK(Views!A89), "", Views!A89)</f>
+        <v/>
+      </c>
+      <c r="B87">
+        <f>IF(ISBLANK(Containers!A89), "", Containers!A89)</f>
+        <v/>
+      </c>
+      <c r="C87">
+        <f>IF(ISBLANK(Views!A76), "", Views!A76)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <f>IF(ISBLANK(Views!A90), "", Views!A90)</f>
+        <v/>
+      </c>
+      <c r="B88">
+        <f>IF(ISBLANK(Containers!A90), "", Containers!A90)</f>
+        <v/>
+      </c>
+      <c r="C88">
+        <f>IF(ISBLANK(Views!A77), "", Views!A77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <f>IF(ISBLANK(Views!A91), "", Views!A91)</f>
+        <v/>
+      </c>
+      <c r="B89">
+        <f>IF(ISBLANK(Containers!A91), "", Containers!A91)</f>
+        <v/>
+      </c>
+      <c r="C89">
+        <f>IF(ISBLANK(Views!A78), "", Views!A78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <f>IF(ISBLANK(Views!A92), "", Views!A92)</f>
+        <v/>
+      </c>
+      <c r="B90">
+        <f>IF(ISBLANK(Containers!A92), "", Containers!A92)</f>
+        <v/>
+      </c>
+      <c r="C90">
+        <f>IF(ISBLANK(Views!A79), "", Views!A79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <f>IF(ISBLANK(Views!A93), "", Views!A93)</f>
+        <v/>
+      </c>
+      <c r="B91">
+        <f>IF(ISBLANK(Containers!A93), "", Containers!A93)</f>
+        <v/>
+      </c>
+      <c r="C91">
+        <f>IF(ISBLANK(Views!A80), "", Views!A80)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <f>IF(ISBLANK(Views!A94), "", Views!A94)</f>
+        <v/>
+      </c>
+      <c r="B92">
+        <f>IF(ISBLANK(Containers!A94), "", Containers!A94)</f>
+        <v/>
+      </c>
+      <c r="C92">
+        <f>IF(ISBLANK(Views!A81), "", Views!A81)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <f>IF(ISBLANK(Views!A95), "", Views!A95)</f>
+        <v/>
+      </c>
+      <c r="B93">
+        <f>IF(ISBLANK(Containers!A95), "", Containers!A95)</f>
+        <v/>
+      </c>
+      <c r="C93">
+        <f>IF(ISBLANK(Views!A82), "", Views!A82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <f>IF(ISBLANK(Views!A96), "", Views!A96)</f>
+        <v/>
+      </c>
+      <c r="B94">
+        <f>IF(ISBLANK(Containers!A96), "", Containers!A96)</f>
+        <v/>
+      </c>
+      <c r="C94">
+        <f>IF(ISBLANK(Views!A83), "", Views!A83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <f>IF(ISBLANK(Views!A97), "", Views!A97)</f>
+        <v/>
+      </c>
+      <c r="B95">
+        <f>IF(ISBLANK(Containers!A97), "", Containers!A97)</f>
+        <v/>
+      </c>
+      <c r="C95">
+        <f>IF(ISBLANK(Views!A84), "", Views!A84)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <f>IF(ISBLANK(Views!A98), "", Views!A98)</f>
+        <v/>
+      </c>
+      <c r="B96">
+        <f>IF(ISBLANK(Containers!A98), "", Containers!A98)</f>
+        <v/>
+      </c>
+      <c r="C96">
+        <f>IF(ISBLANK(Views!A85), "", Views!A85)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <f>IF(ISBLANK(Views!A99), "", Views!A99)</f>
+        <v/>
+      </c>
+      <c r="B97">
+        <f>IF(ISBLANK(Containers!A99), "", Containers!A99)</f>
+        <v/>
+      </c>
+      <c r="C97">
+        <f>IF(ISBLANK(Views!A86), "", Views!A86)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <f>IF(ISBLANK(Views!A100), "", Views!A100)</f>
+        <v/>
+      </c>
+      <c r="B98">
+        <f>IF(ISBLANK(Containers!A100), "", Containers!A100)</f>
+        <v/>
+      </c>
+      <c r="C98">
+        <f>IF(ISBLANK(Views!A87), "", Views!A87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <f>IF(ISBLANK(Views!A101), "", Views!A101)</f>
+        <v/>
+      </c>
+      <c r="B99">
+        <f>IF(ISBLANK(Containers!A101), "", Containers!A101)</f>
+        <v/>
+      </c>
+      <c r="C99">
+        <f>IF(ISBLANK(Views!A88), "", Views!A88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <f>IF(ISBLANK(Views!A102), "", Views!A102)</f>
+        <v/>
+      </c>
+      <c r="B100">
+        <f>IF(ISBLANK(Containers!A102), "", Containers!A102)</f>
+        <v/>
+      </c>
+      <c r="C100">
+        <f>IF(ISBLANK(Views!A89), "", Views!A89)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101">
+        <f>IF(ISBLANK(Views!A90), "", Views!A90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102">
+        <f>IF(ISBLANK(Views!A91), "", Views!A91)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103">
+        <f>IF(ISBLANK(Views!A92), "", Views!A92)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104">
+        <f>IF(ISBLANK(Views!A93), "", Views!A93)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105">
+        <f>IF(ISBLANK(Views!A94), "", Views!A94)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106">
+        <f>IF(ISBLANK(Views!A95), "", Views!A95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107">
+        <f>IF(ISBLANK(Views!A96), "", Views!A96)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108">
+        <f>IF(ISBLANK(Views!A97), "", Views!A97)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109">
+        <f>IF(ISBLANK(Views!A98), "", Views!A98)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110">
+        <f>IF(ISBLANK(Views!A99), "", Views!A99)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111">
+        <f>IF(ISBLANK(Views!A100), "", Views!A100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112">
+        <f>IF(ISBLANK(Views!A101), "", Views!A101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113">
+        <f>IF(ISBLANK(Views!A102), "", Views!A102)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1220,17 +2753,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="24.5" customWidth="1" min="1" max="1"/>
-    <col width="23.5" customWidth="1" min="2" max="2"/>
+    <col width="22.5" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="70" customWidth="1" min="4" max="4"/>
     <col width="28.5" customWidth="1" min="5" max="5"/>
-    <col width="17.5" customWidth="1" min="6" max="6"/>
+    <col width="16.5" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
     <col width="25.5" customWidth="1" min="11" max="11"/>
-    <col width="23.5" customWidth="1" min="12" max="12"/>
+    <col width="22.5" customWidth="1" min="12" max="12"/>
     <col width="13" customWidth="1" min="13" max="13"/>
     <col width="13" customWidth="1" min="14" max="14"/>
     <col hidden="1" width="13" customWidth="1" min="15" max="15"/>
@@ -1344,7 +2877,7 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgActivity</t>
+          <t>CopyOfActivity</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
@@ -1369,7 +2902,7 @@
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="G3" s="6" t="b">
@@ -1404,32 +2937,20 @@
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgActivity</t>
+          <t>CopyOfActivity</t>
         </is>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>equipment</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>A list of equipment the activity is related to.</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+          <t>copyOfActivityGUID</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgEquipment</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G4" s="6" t="b">
@@ -1439,45 +2960,53 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6" t="n"/>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity</t>
+          <t>CopyOfActivity</t>
         </is>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>equipment</t>
+          <t>copyOfActivityGUID</t>
         </is>
       </c>
       <c r="M4" s="6" t="n"/>
       <c r="N4" s="6" t="n"/>
       <c r="O4" s="6" t="n"/>
-      <c r="P4" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/equipment</t>
-        </is>
-      </c>
+      <c r="P4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgActivity</t>
+          <t>CopyOfActivity</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>neatOrgActivityGUID</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+          <t>equipment</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>A list of equipment the activity is related to.</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>CopyOfEquipment</t>
         </is>
       </c>
       <c r="G5" s="6" t="b">
@@ -1487,28 +3016,32 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="6" t="n"/>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgActivity</t>
+          <t>cdf_cdm:CogniteActivity</t>
         </is>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>neatOrgActivityGUID</t>
+          <t>equipment</t>
         </is>
       </c>
       <c r="M5" s="6" t="n"/>
       <c r="N5" s="6" t="n"/>
       <c r="O5" s="6" t="n"/>
-      <c r="P5" s="6" t="n"/>
+      <c r="P5" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/equipment</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgActivity</t>
+          <t>CopyOfActivity</t>
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr">
@@ -1533,7 +3066,7 @@
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgTimeSeries</t>
+          <t>CopyOfTimeSeries</t>
         </is>
       </c>
       <c r="G6" s="6" t="b">
@@ -1568,7 +3101,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -1593,7 +3126,7 @@
       </c>
       <c r="F7" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgActivity</t>
+          <t>CopyOfActivity</t>
         </is>
       </c>
       <c r="G7" s="7" t="n"/>
@@ -1616,7 +3149,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1641,7 +3174,7 @@
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="G8" s="7" t="n"/>
@@ -1664,99 +3197,99 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>equipment</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>An automatically updated list of equipment related to the asset.</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>reverse(property=asset)</t>
-        </is>
-      </c>
+          <t>copyOfAssetGUID</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgEquipment</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="I9" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="n"/>
-      <c r="K9" s="7" t="n"/>
-      <c r="L9" s="7" t="n"/>
+      <c r="K9" s="7" t="inlineStr">
+        <is>
+          <t>CopyOfAsset</t>
+        </is>
+      </c>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
+          <t>copyOfAssetGUID</t>
+        </is>
+      </c>
       <c r="M9" s="7" t="n"/>
       <c r="N9" s="7" t="n"/>
       <c r="O9" s="7" t="n"/>
-      <c r="P9" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/equipment</t>
-        </is>
-      </c>
+      <c r="P9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>neatOrgAssetGUID</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
+          <t>equipment</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>An automatically updated list of equipment related to the asset.</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>reverse(property=asset)</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7" t="b">
-        <v>0</v>
-      </c>
+          <t>CopyOfEquipment</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="7" t="n"/>
-      <c r="K10" s="7" t="inlineStr">
-        <is>
-          <t>NeatOrgAsset</t>
-        </is>
-      </c>
-      <c r="L10" s="7" t="inlineStr">
-        <is>
-          <t>neatOrgAssetGUID</t>
-        </is>
-      </c>
+      <c r="K10" s="7" t="n"/>
+      <c r="L10" s="7" t="n"/>
       <c r="M10" s="7" t="n"/>
       <c r="N10" s="7" t="n"/>
       <c r="O10" s="7" t="n"/>
-      <c r="P10" s="7" t="n"/>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/equipment</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1781,7 +3314,7 @@
       </c>
       <c r="F11" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="G11" s="7" t="b">
@@ -1816,7 +3349,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -1841,7 +3374,7 @@
       </c>
       <c r="F12" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="G12" s="7" t="b">
@@ -1876,7 +3409,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -1901,7 +3434,7 @@
       </c>
       <c r="F13" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="G13" s="7" t="b">
@@ -1936,7 +3469,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -1961,7 +3494,7 @@
       </c>
       <c r="F14" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgTimeSeries</t>
+          <t>CopyOfTimeSeries</t>
         </is>
       </c>
       <c r="G14" s="7" t="n"/>
@@ -1984,12 +3517,12 @@
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgDescribable</t>
+          <t>CopyOfDescribable</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>neatOrgDescribableGUID</t>
+          <t>copyOfDescribableGUID</t>
         </is>
       </c>
       <c r="C15" s="6" t="n"/>
@@ -2012,12 +3545,12 @@
       <c r="J15" s="6" t="n"/>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgDescribable</t>
+          <t>CopyOfDescribable</t>
         </is>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>neatOrgDescribableGUID</t>
+          <t>copyOfDescribableGUID</t>
         </is>
       </c>
       <c r="M15" s="6" t="n"/>
@@ -2028,7 +3561,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgEquipment</t>
+          <t>CopyOfEquipment</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -2053,7 +3586,7 @@
       </c>
       <c r="F16" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgActivity</t>
+          <t>CopyOfActivity</t>
         </is>
       </c>
       <c r="G16" s="7" t="n"/>
@@ -2076,7 +3609,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgEquipment</t>
+          <t>CopyOfEquipment</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -2101,7 +3634,7 @@
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="G17" s="7" t="b">
@@ -2136,12 +3669,12 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgEquipment</t>
+          <t>CopyOfEquipment</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>neatOrgEquipmentGUID</t>
+          <t>copyOfEquipmentGUID</t>
         </is>
       </c>
       <c r="C18" s="7" t="n"/>
@@ -2164,12 +3697,12 @@
       <c r="J18" s="7" t="n"/>
       <c r="K18" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgEquipment</t>
+          <t>CopyOfEquipment</t>
         </is>
       </c>
       <c r="L18" s="7" t="inlineStr">
         <is>
-          <t>neatOrgEquipmentGUID</t>
+          <t>copyOfEquipmentGUID</t>
         </is>
       </c>
       <c r="M18" s="7" t="n"/>
@@ -2180,7 +3713,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgEquipment</t>
+          <t>CopyOfEquipment</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -2205,7 +3738,7 @@
       </c>
       <c r="F19" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgTimeSeries</t>
+          <t>CopyOfTimeSeries</t>
         </is>
       </c>
       <c r="G19" s="7" t="n"/>
@@ -2228,12 +3761,12 @@
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgSchedulable</t>
+          <t>CopyOfSchedulable</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>neatOrgSchedulableGUID</t>
+          <t>copyOfSchedulableGUID</t>
         </is>
       </c>
       <c r="C20" s="6" t="n"/>
@@ -2256,12 +3789,12 @@
       <c r="J20" s="6" t="n"/>
       <c r="K20" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgSchedulable</t>
+          <t>CopyOfSchedulable</t>
         </is>
       </c>
       <c r="L20" s="6" t="inlineStr">
         <is>
-          <t>neatOrgSchedulableGUID</t>
+          <t>copyOfSchedulableGUID</t>
         </is>
       </c>
       <c r="M20" s="6" t="n"/>
@@ -2272,12 +3805,12 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgSourceable</t>
+          <t>CopyOfSourceable</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>neatOrgSourceableGUID</t>
+          <t>copyOfSourceableGUID</t>
         </is>
       </c>
       <c r="C21" s="7" t="n"/>
@@ -2300,12 +3833,12 @@
       <c r="J21" s="7" t="n"/>
       <c r="K21" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgSourceable</t>
+          <t>CopyOfSourceable</t>
         </is>
       </c>
       <c r="L21" s="7" t="inlineStr">
         <is>
-          <t>neatOrgSourceableGUID</t>
+          <t>copyOfSourceableGUID</t>
         </is>
       </c>
       <c r="M21" s="7" t="n"/>
@@ -2316,7 +3849,7 @@
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgTimeSeries</t>
+          <t>CopyOfTimeSeries</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
@@ -2341,7 +3874,7 @@
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgActivity</t>
+          <t>CopyOfActivity</t>
         </is>
       </c>
       <c r="G22" s="6" t="n"/>
@@ -2364,7 +3897,7 @@
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgTimeSeries</t>
+          <t>CopyOfTimeSeries</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
@@ -2389,7 +3922,7 @@
       </c>
       <c r="F23" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="G23" s="6" t="b">
@@ -2424,32 +3957,20 @@
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgTimeSeries</t>
+          <t>CopyOfTimeSeries</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>equipment</t>
-        </is>
-      </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
-        <is>
-          <t>A list of equipment the time series is related to.</t>
-        </is>
-      </c>
-      <c r="E24" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+          <t>copyOfTimeSeriesGUID</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
       <c r="F24" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgEquipment</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G24" s="6" t="b">
@@ -2459,45 +3980,53 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="6" t="n"/>
       <c r="K24" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
+          <t>CopyOfTimeSeries</t>
         </is>
       </c>
       <c r="L24" s="6" t="inlineStr">
         <is>
-          <t>equipment</t>
+          <t>copyOfTimeSeriesGUID</t>
         </is>
       </c>
       <c r="M24" s="6" t="n"/>
       <c r="N24" s="6" t="n"/>
       <c r="O24" s="6" t="n"/>
-      <c r="P24" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/equipment</t>
-        </is>
-      </c>
+      <c r="P24" s="6" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgTimeSeries</t>
+          <t>CopyOfTimeSeries</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>neatOrgTimeSeriesGUID</t>
-        </is>
-      </c>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+          <t>equipment</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>A list of equipment the time series is related to.</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>CopyOfEquipment</t>
         </is>
       </c>
       <c r="G25" s="6" t="b">
@@ -2507,33 +4036,37 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="6" t="n"/>
       <c r="K25" s="6" t="inlineStr">
         <is>
-          <t>NeatOrgTimeSeries</t>
+          <t>cdf_cdm:CogniteTimeSeries</t>
         </is>
       </c>
       <c r="L25" s="6" t="inlineStr">
         <is>
-          <t>neatOrgTimeSeriesGUID</t>
+          <t>equipment</t>
         </is>
       </c>
       <c r="M25" s="6" t="n"/>
       <c r="N25" s="6" t="n"/>
       <c r="O25" s="6" t="n"/>
-      <c r="P25" s="6" t="n"/>
+      <c r="P25" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/equipment</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgVisualizable</t>
+          <t>CopyOfVisualizable</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>neatOrgVisualizableGUID</t>
+          <t>copyOfVisualizableGUID</t>
         </is>
       </c>
       <c r="C26" s="7" t="n"/>
@@ -2556,12 +4089,12 @@
       <c r="J26" s="7" t="n"/>
       <c r="K26" s="7" t="inlineStr">
         <is>
-          <t>NeatOrgVisualizable</t>
+          <t>CopyOfVisualizable</t>
         </is>
       </c>
       <c r="L26" s="7" t="inlineStr">
         <is>
-          <t>neatOrgVisualizableGUID</t>
+          <t>copyOfVisualizableGUID</t>
         </is>
       </c>
       <c r="M26" s="7" t="n"/>
@@ -2570,6 +4103,26 @@
       <c r="P26" s="7" t="n"/>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation sqref="A3:A10000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=_helper!A$1:A$100</formula1>
+    </dataValidation>
+    <dataValidation sqref="K3:K10000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=_helper!b$1:b$100</formula1>
+    </dataValidation>
+    <dataValidation sqref="F3:F10000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=_helper!C$1:C$100</formula1>
+    </dataValidation>
+    <dataValidation sqref="G3:G10000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=_helper!D$1:D$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="I3:I10000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=_helper!D$1:D$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="H3:H10000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=_helper!D$1:D$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2658,7 +4211,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NeatOrgActivity</t>
+          <t>CopyOfActivity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2678,7 +4231,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2698,7 +4251,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NeatOrgDescribable</t>
+          <t>CopyOfDescribable</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2713,7 +4266,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NeatOrgEquipment</t>
+          <t>CopyOfEquipment</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2733,7 +4286,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NeatOrgSchedulable</t>
+          <t>CopyOfSchedulable</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2748,7 +4301,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NeatOrgSourceable</t>
+          <t>CopyOfSourceable</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2763,7 +4316,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NeatOrgTimeSeries</t>
+          <t>CopyOfTimeSeries</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2783,7 +4336,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NeatOrgVisualizable</t>
+          <t>CopyOfVisualizable</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2991,6 +4544,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="F3:F100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=_helper!D$1:D$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3065,7 +4623,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NeatOrgActivity</t>
+          <t>CopyOfActivity</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3077,7 +4635,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NeatOrgAsset</t>
+          <t>CopyOfAsset</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3089,7 +4647,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NeatOrgDescribable</t>
+          <t>CopyOfDescribable</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3101,7 +4659,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NeatOrgEquipment</t>
+          <t>CopyOfEquipment</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3113,7 +4671,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NeatOrgSchedulable</t>
+          <t>CopyOfSchedulable</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3125,7 +4683,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NeatOrgSourceable</t>
+          <t>CopyOfSourceable</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3137,7 +4695,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NeatOrgTimeSeries</t>
+          <t>CopyOfTimeSeries</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3149,7 +4707,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NeatOrgVisualizable</t>
+          <t>CopyOfVisualizable</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3159,6 +4717,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="E3:E100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=_helper!E$1:E$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3226,7 +4789,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3243,7 +4806,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3260,7 +4823,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3277,129 +4840,119 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CogniteAnnotation.status</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Suggested</t>
+          <t>Queued</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Suggested</t>
+          <t>Queued</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CogniteAnnotation.status</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Processing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CogniteAnnotation.status</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CognitePointCloudVolume.volumeType</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cylinder</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cylinder</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CognitePointCloudVolume.volumeType</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Box</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Box</t>
+          <t>CAD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CogniteTimeSeries.type</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>PointCloud</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Time series with string data points.</t>
+          <t>PointCloud</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CogniteTimeSeries.type</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>Image360</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Time series with double floating point data points.</t>
+          <t>Image360</t>
         </is>
       </c>
     </row>
@@ -3423,119 +4976,129 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>CogniteTimeSeries.type</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Time series with string data points.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>CogniteTimeSeries.type</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PointCloud</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PointCloud</t>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Time series with double floating point data points.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>CognitePointCloudVolume.volumeType</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Image360</t>
+          <t>Cylinder</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Image360</t>
+          <t>Cylinder</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CognitePointCloudVolume.volumeType</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>Box</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>Box</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CogniteAnnotation.status</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Suggested</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Suggested</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CogniteAnnotation.status</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Approved</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CogniteAnnotation.status</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -3750,36 +5313,32 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>isStep</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Is step</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>The parent of the asset.</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+          <t>Specifies whether the time series is a step time series or not.</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="G3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6" t="b">
         <v>0</v>
@@ -3787,15 +5346,17 @@
       <c r="I3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="6" t="n"/>
+      <c r="J3" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="K3" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset</t>
+          <t>cdf_cdm:CogniteTimeSeries</t>
         </is>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>assetHierarchy_parent</t>
+          <t>isStep</t>
         </is>
       </c>
       <c r="M3" s="6" t="n"/>
@@ -3803,46 +5364,42 @@
       <c r="O3" s="6" t="n"/>
       <c r="P3" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/parent</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/isStep</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
         </is>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>type</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr">
         <is>
-          <t>Root</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>An automatically updated reference to the top-level asset of the hierarchy.</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+          <t>Specifies the data type of the data points.</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="n"/>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+          <t>enum(collection=CogniteTimeSeries.type)</t>
         </is>
       </c>
       <c r="G4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="6" t="b">
         <v>0</v>
@@ -3850,12 +5407,12 @@
       <c r="J4" s="6" t="n"/>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset</t>
+          <t>cdf_cdm:CogniteTimeSeries</t>
         </is>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>assetHierarchy_root</t>
+          <t>type</t>
         </is>
       </c>
       <c r="M4" s="6" t="n"/>
@@ -3863,39 +5420,35 @@
       <c r="O4" s="6" t="n"/>
       <c r="P4" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/root</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/type</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>path</t>
+          <t>sourceUnit</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>Path</t>
+          <t>Source unit</t>
         </is>
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>An automatically updated ordered list of this asset's ancestors, starting with the root asset. Enables subtree filtering to find all assets under a parent.</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+          <t>The unit specified in the source system.</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n"/>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G5" s="6" t="b">
@@ -3905,17 +5458,17 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="6" t="n"/>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset</t>
+          <t>cdf_cdm:CogniteTimeSeries</t>
         </is>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>assetHierarchy_path</t>
+          <t>sourceUnit</t>
         </is>
       </c>
       <c r="M5" s="6" t="n"/>
@@ -3923,37 +5476,41 @@
       <c r="O5" s="6" t="n"/>
       <c r="P5" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/path</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/sourceUnit</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>assets</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>A list of assets the time series is related to.</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
           <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>pathLastUpdatedTime</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Path last updated time</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>The last time the path was updated for this asset.</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
       <c r="G6" s="6" t="b">
         <v>1</v>
       </c>
@@ -3961,17 +5518,17 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="6" t="n"/>
       <c r="K6" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset</t>
+          <t>cdf_cdm:CogniteTimeSeries</t>
         </is>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>assetHierarchy_path_last_updated_time</t>
+          <t>assets</t>
         </is>
       </c>
       <c r="M6" s="6" t="n"/>
@@ -3979,87 +5536,99 @@
       <c r="O6" s="6" t="n"/>
       <c r="P6" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/pathLastUpdatedTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/assets</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>equipment</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>Children</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>An automatically updated list of assets with this asset as their parent.</t>
+          <t>A list of equipment the time series is related to.</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>reverse(property=parent)</t>
+          <t>direct</t>
         </is>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="n"/>
-      <c r="H7" s="6" t="n"/>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="I7" s="6" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="6" t="n"/>
-      <c r="K7" s="6" t="n"/>
-      <c r="L7" s="6" t="n"/>
+      <c r="K7" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteTimeSeries</t>
+        </is>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
+        <is>
+          <t>equipment</t>
+        </is>
+      </c>
       <c r="M7" s="6" t="n"/>
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="6" t="n"/>
       <c r="P7" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/children</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/equipment</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>equipment</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Activities</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>An automatically updated list of equipment related to the asset.</t>
+          <t>An automatically updated list of activities the time series is related to.</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>reverse(property=asset)</t>
+          <t>reverse(property=timeSeries)</t>
         </is>
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+          <t>cdf_cdm:CogniteActivity(version=v1)</t>
         </is>
       </c>
       <c r="G8" s="6" t="n"/>
@@ -4075,127 +5644,159 @@
       <c r="O8" s="6" t="n"/>
       <c r="P8" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/equipment</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/activities</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteActivity(version=v1)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>assets</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>A list of assets the activity is related to.</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Activities</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>An automatically updated list of activities related to the asset.</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>reverse(property=assets)</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="G9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="n"/>
+      <c r="K9" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteActivity</t>
+        </is>
+      </c>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
+          <t>assets</t>
+        </is>
+      </c>
+      <c r="M9" s="7" t="n"/>
+      <c r="N9" s="7" t="n"/>
+      <c r="O9" s="7" t="n"/>
+      <c r="P9" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/assets</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>cdf_cdm:CogniteActivity(version=v1)</t>
         </is>
       </c>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6" t="n"/>
-      <c r="K9" s="6" t="n"/>
-      <c r="L9" s="6" t="n"/>
-      <c r="M9" s="6" t="n"/>
-      <c r="N9" s="6" t="n"/>
-      <c r="O9" s="6" t="n"/>
-      <c r="P9" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/activities</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>timeSeries</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>Time series</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>An automatically updated list of time series related to the asset.</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>reverse(property=assets)</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6" t="n"/>
-      <c r="K10" s="6" t="n"/>
-      <c r="L10" s="6" t="n"/>
-      <c r="M10" s="6" t="n"/>
-      <c r="N10" s="6" t="n"/>
-      <c r="O10" s="6" t="n"/>
-      <c r="P10" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/timeSeries</t>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>equipment</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>A list of equipment the activity is related to.</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="n"/>
+      <c r="K10" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteActivity</t>
+        </is>
+      </c>
+      <c r="L10" s="7" t="inlineStr">
+        <is>
+          <t>equipment</t>
+        </is>
+      </c>
+      <c r="M10" s="7" t="n"/>
+      <c r="N10" s="7" t="n"/>
+      <c r="O10" s="7" t="n"/>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/equipment</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteActivity(version=v1)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>sourceId</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n"/>
+          <t>timeSeries</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Time series</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>Identifier from the source system</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
+          <t>A list of time series the activity is related to.</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="F11" s="7" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
         </is>
       </c>
       <c r="G11" s="7" t="b">
@@ -4205,269 +5806,281 @@
         <v>0</v>
       </c>
       <c r="I11" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="7" t="n"/>
       <c r="K11" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable</t>
+          <t>cdf_cdm:CogniteActivity</t>
         </is>
       </c>
       <c r="L11" s="7" t="inlineStr">
         <is>
-          <t>sourceId</t>
-        </is>
-      </c>
-      <c r="M11" s="7" t="inlineStr">
-        <is>
-          <t>sourceId</t>
-        </is>
-      </c>
+          <t>timeSeries</t>
+        </is>
+      </c>
+      <c r="M11" s="7" t="n"/>
       <c r="N11" s="7" t="n"/>
       <c r="O11" s="7" t="n"/>
       <c r="P11" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceId</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/timeSeries</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>sourceContext</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Context of the source id. For systems where the sourceId is globally unique, the sourceContext is expected to not be set.</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="n"/>
-      <c r="K12" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable</t>
-        </is>
-      </c>
-      <c r="L12" s="7" t="inlineStr">
-        <is>
-          <t>sourceContext</t>
-        </is>
-      </c>
-      <c r="M12" s="7" t="n"/>
-      <c r="N12" s="7" t="n"/>
-      <c r="O12" s="7" t="n"/>
-      <c r="P12" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceContext</t>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>The actual start time of an activity (or similar that extends this)</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="n"/>
+      <c r="K12" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable</t>
+        </is>
+      </c>
+      <c r="L12" s="6" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="N12" s="6" t="n"/>
+      <c r="O12" s="6" t="n"/>
+      <c r="P12" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/startTime</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>sourceCreatedTime</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>When the instance was created in source system (if available)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>The actual end time of an activity (or similar that extends this)</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="n"/>
-      <c r="K13" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable</t>
-        </is>
-      </c>
-      <c r="L13" s="7" t="inlineStr">
-        <is>
-          <t>sourceCreatedTime</t>
-        </is>
-      </c>
-      <c r="M13" s="7" t="inlineStr">
-        <is>
-          <t>sourceCreatedTime</t>
-        </is>
-      </c>
-      <c r="N13" s="7" t="n"/>
-      <c r="O13" s="7" t="n"/>
-      <c r="P13" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceCreatedTime</t>
+      <c r="G13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="n"/>
+      <c r="K13" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable</t>
+        </is>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="M13" s="6" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="N13" s="6" t="n"/>
+      <c r="O13" s="6" t="n"/>
+      <c r="P13" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/endTime</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>sourceUpdatedTime</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>When the instance was last updated in the source system (if available)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>scheduledStartTime</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>The planned start time of an activity (or similar that extends this)</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="6" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="n"/>
-      <c r="K14" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable</t>
-        </is>
-      </c>
-      <c r="L14" s="7" t="inlineStr">
-        <is>
-          <t>sourceUpdatedTime</t>
-        </is>
-      </c>
-      <c r="M14" s="7" t="inlineStr">
-        <is>
-          <t>sourceUpdatedTime</t>
-        </is>
-      </c>
-      <c r="N14" s="7" t="n"/>
-      <c r="O14" s="7" t="n"/>
-      <c r="P14" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceUpdatedTime</t>
+      <c r="G14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="n"/>
+      <c r="K14" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable</t>
+        </is>
+      </c>
+      <c r="L14" s="6" t="inlineStr">
+        <is>
+          <t>scheduledStartTime</t>
+        </is>
+      </c>
+      <c r="M14" s="6" t="inlineStr">
+        <is>
+          <t>scheduledStartTime</t>
+        </is>
+      </c>
+      <c r="N14" s="6" t="n"/>
+      <c r="O14" s="6" t="n"/>
+      <c r="P14" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/scheduledStartTime</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>sourceCreatedUser</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>User identifier from the source system on who created the source data. This identifier is not guaranteed to match the user identifiers in CDF</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="n"/>
-      <c r="K15" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable</t>
-        </is>
-      </c>
-      <c r="L15" s="7" t="inlineStr">
-        <is>
-          <t>sourceCreatedUser</t>
-        </is>
-      </c>
-      <c r="M15" s="7" t="n"/>
-      <c r="N15" s="7" t="n"/>
-      <c r="O15" s="7" t="n"/>
-      <c r="P15" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceCreatedUser</t>
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>scheduledEndTime</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>The planned end time of an activity (or similar that extends this)</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="n"/>
+      <c r="K15" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable</t>
+        </is>
+      </c>
+      <c r="L15" s="6" t="inlineStr">
+        <is>
+          <t>scheduledEndTime</t>
+        </is>
+      </c>
+      <c r="M15" s="6" t="inlineStr">
+        <is>
+          <t>scheduledEndTime</t>
+        </is>
+      </c>
+      <c r="N15" s="6" t="n"/>
+      <c r="O15" s="6" t="n"/>
+      <c r="P15" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/scheduledEndTime</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>sourceUpdatedUser</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n"/>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>User identifier from the source system on who last updated the source data. This identifier is not guaranteed to match the user identifiers in CDF</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="n"/>
+          <t>The parent of the asset.</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="F16" s="7" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
       <c r="G16" s="7" t="b">
@@ -4482,12 +6095,12 @@
       <c r="J16" s="7" t="n"/>
       <c r="K16" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable</t>
+          <t>cdf_cdm:CogniteAsset</t>
         </is>
       </c>
       <c r="L16" s="7" t="inlineStr">
         <is>
-          <t>sourceUpdatedUser</t>
+          <t>assetHierarchy_parent</t>
         </is>
       </c>
       <c r="M16" s="7" t="n"/>
@@ -4495,761 +6108,731 @@
       <c r="O16" s="7" t="n"/>
       <c r="P16" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceUpdatedUser</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/parent</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>isStep</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>Is step</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>Specifies whether the time series is a step time series or not.</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="n"/>
-      <c r="F17" s="6" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="G17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
-        </is>
-      </c>
-      <c r="L17" s="6" t="inlineStr">
-        <is>
-          <t>isStep</t>
-        </is>
-      </c>
-      <c r="M17" s="6" t="n"/>
-      <c r="N17" s="6" t="n"/>
-      <c r="O17" s="6" t="n"/>
-      <c r="P17" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/isStep</t>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>Root</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>An automatically updated reference to the top-level asset of the hierarchy.</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n"/>
+      <c r="K17" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset</t>
+        </is>
+      </c>
+      <c r="L17" s="7" t="inlineStr">
+        <is>
+          <t>assetHierarchy_root</t>
+        </is>
+      </c>
+      <c r="M17" s="7" t="n"/>
+      <c r="N17" s="7" t="n"/>
+      <c r="O17" s="7" t="n"/>
+      <c r="P17" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/root</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>Specifies the data type of the data points.</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="n"/>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>enum(collection=CogniteTimeSeries.type)</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6" t="n"/>
-      <c r="K18" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
-        </is>
-      </c>
-      <c r="L18" s="6" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="M18" s="6" t="n"/>
-      <c r="N18" s="6" t="n"/>
-      <c r="O18" s="6" t="n"/>
-      <c r="P18" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/type</t>
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>An automatically updated ordered list of this asset's ancestors, starting with the root asset. Enables subtree filtering to find all assets under a parent.</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7" t="n"/>
+      <c r="K18" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset</t>
+        </is>
+      </c>
+      <c r="L18" s="7" t="inlineStr">
+        <is>
+          <t>assetHierarchy_path</t>
+        </is>
+      </c>
+      <c r="M18" s="7" t="n"/>
+      <c r="N18" s="7" t="n"/>
+      <c r="O18" s="7" t="n"/>
+      <c r="P18" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/path</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>sourceUnit</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>Source unit</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>The unit specified in the source system.</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="n"/>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6" t="n"/>
-      <c r="K19" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
-        </is>
-      </c>
-      <c r="L19" s="6" t="inlineStr">
-        <is>
-          <t>sourceUnit</t>
-        </is>
-      </c>
-      <c r="M19" s="6" t="n"/>
-      <c r="N19" s="6" t="n"/>
-      <c r="O19" s="6" t="n"/>
-      <c r="P19" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/sourceUnit</t>
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>pathLastUpdatedTime</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>Path last updated time</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>The last time the path was updated for this asset.</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n"/>
+      <c r="K19" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset</t>
+        </is>
+      </c>
+      <c r="L19" s="7" t="inlineStr">
+        <is>
+          <t>assetHierarchy_path_last_updated_time</t>
+        </is>
+      </c>
+      <c r="M19" s="7" t="n"/>
+      <c r="N19" s="7" t="n"/>
+      <c r="O19" s="7" t="n"/>
+      <c r="P19" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/pathLastUpdatedTime</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>assets</t>
-        </is>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>Assets</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>A list of assets the time series is related to.</t>
-        </is>
-      </c>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
-      <c r="G20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6" t="n"/>
-      <c r="K20" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
-        </is>
-      </c>
-      <c r="L20" s="6" t="inlineStr">
-        <is>
-          <t>assets</t>
-        </is>
-      </c>
-      <c r="M20" s="6" t="n"/>
-      <c r="N20" s="6" t="n"/>
-      <c r="O20" s="6" t="n"/>
-      <c r="P20" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/assets</t>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>Children</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>An automatically updated list of assets with this asset as their parent.</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>reverse(property=parent)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="n"/>
+      <c r="H20" s="7" t="n"/>
+      <c r="I20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7" t="n"/>
+      <c r="K20" s="7" t="n"/>
+      <c r="L20" s="7" t="n"/>
+      <c r="M20" s="7" t="n"/>
+      <c r="N20" s="7" t="n"/>
+      <c r="O20" s="7" t="n"/>
+      <c r="P20" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/children</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>equipment</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>A list of equipment the time series is related to.</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>An automatically updated list of equipment related to the asset.</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>reverse(property=asset)</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
         <is>
           <t>cdf_cdm:CogniteEquipment(version=v1)</t>
         </is>
       </c>
-      <c r="G21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6" t="n"/>
-      <c r="K21" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
-        </is>
-      </c>
-      <c r="L21" s="6" t="inlineStr">
-        <is>
-          <t>equipment</t>
-        </is>
-      </c>
-      <c r="M21" s="6" t="n"/>
-      <c r="N21" s="6" t="n"/>
-      <c r="O21" s="6" t="n"/>
-      <c r="P21" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/equipment</t>
+      <c r="G21" s="7" t="n"/>
+      <c r="H21" s="7" t="n"/>
+      <c r="I21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7" t="n"/>
+      <c r="K21" s="7" t="n"/>
+      <c r="L21" s="7" t="n"/>
+      <c r="M21" s="7" t="n"/>
+      <c r="N21" s="7" t="n"/>
+      <c r="O21" s="7" t="n"/>
+      <c r="P21" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/equipment</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>activities</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C22" s="7" t="inlineStr">
         <is>
           <t>Activities</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>An automatically updated list of activities the time series is related to.</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>reverse(property=timeSeries)</t>
-        </is>
-      </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>An automatically updated list of activities related to the asset.</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>reverse(property=assets)</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="inlineStr">
         <is>
           <t>cdf_cdm:CogniteActivity(version=v1)</t>
         </is>
       </c>
-      <c r="G22" s="6" t="n"/>
-      <c r="H22" s="6" t="n"/>
-      <c r="I22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6" t="n"/>
-      <c r="K22" s="6" t="n"/>
-      <c r="L22" s="6" t="n"/>
-      <c r="M22" s="6" t="n"/>
-      <c r="N22" s="6" t="n"/>
-      <c r="O22" s="6" t="n"/>
-      <c r="P22" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/activities</t>
+      <c r="G22" s="7" t="n"/>
+      <c r="H22" s="7" t="n"/>
+      <c r="I22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7" t="n"/>
+      <c r="K22" s="7" t="n"/>
+      <c r="L22" s="7" t="n"/>
+      <c r="M22" s="7" t="n"/>
+      <c r="N22" s="7" t="n"/>
+      <c r="O22" s="7" t="n"/>
+      <c r="P22" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/activities</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="n"/>
+          <t>timeSeries</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>Time series</t>
+        </is>
+      </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>Name of the instance</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="n"/>
+          <t>An automatically updated list of time series related to the asset.</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>reverse(property=assets)</t>
+        </is>
+      </c>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7" t="b">
-        <v>0</v>
-      </c>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="n"/>
+      <c r="H23" s="7" t="n"/>
       <c r="I23" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="7" t="n"/>
-      <c r="K23" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable</t>
-        </is>
-      </c>
-      <c r="L23" s="7" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="M23" s="7" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
+      <c r="K23" s="7" t="n"/>
+      <c r="L23" s="7" t="n"/>
+      <c r="M23" s="7" t="n"/>
       <c r="N23" s="7" t="n"/>
       <c r="O23" s="7" t="n"/>
       <c r="P23" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/name</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/timeSeries</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>Description of the instance</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>Asset</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>The asset the equipment is related to.</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="n"/>
+      <c r="K24" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment</t>
+        </is>
+      </c>
+      <c r="L24" s="6" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="M24" s="6" t="n"/>
+      <c r="N24" s="6" t="n"/>
+      <c r="O24" s="6" t="n"/>
+      <c r="P24" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/asset</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>serialNumber</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Serial number</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>The serial number of the equipment.</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="G24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="n"/>
-      <c r="K24" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable</t>
-        </is>
-      </c>
-      <c r="L24" s="7" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="M24" s="7" t="n"/>
-      <c r="N24" s="7" t="n"/>
-      <c r="O24" s="7" t="n"/>
-      <c r="P24" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/description</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>Text based labels for generic use, limited to 1000</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="inlineStr">
+      <c r="G25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6" t="n"/>
+      <c r="K25" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment</t>
+        </is>
+      </c>
+      <c r="L25" s="6" t="inlineStr">
+        <is>
+          <t>serialNumber</t>
+        </is>
+      </c>
+      <c r="M25" s="6" t="inlineStr">
+        <is>
+          <t>serialNumber</t>
+        </is>
+      </c>
+      <c r="N25" s="6" t="n"/>
+      <c r="O25" s="6" t="n"/>
+      <c r="P25" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/serialNumber</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="inlineStr">
+        <is>
+          <t>The manufacturer of the equipment.</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="G25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="7" t="n"/>
-      <c r="K25" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable</t>
-        </is>
-      </c>
-      <c r="L25" s="7" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="M25" s="7" t="n"/>
-      <c r="N25" s="7" t="n"/>
-      <c r="O25" s="7" t="n"/>
-      <c r="P25" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/tags</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="inlineStr">
-        <is>
-          <t>aliases</t>
-        </is>
-      </c>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="inlineStr">
-        <is>
-          <t>Alternative names for the node</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="7" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="7" t="n"/>
-      <c r="K26" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable</t>
-        </is>
-      </c>
-      <c r="L26" s="7" t="inlineStr">
-        <is>
-          <t>aliases</t>
-        </is>
-      </c>
-      <c r="M26" s="7" t="n"/>
-      <c r="N26" s="7" t="n"/>
-      <c r="O26" s="7" t="n"/>
-      <c r="P26" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/aliases</t>
+      <c r="G26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6" t="n"/>
+      <c r="K26" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment</t>
+        </is>
+      </c>
+      <c r="L26" s="6" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="M26" s="6" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="N26" s="6" t="n"/>
+      <c r="O26" s="6" t="n"/>
+      <c r="P26" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/manufacturer</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>activities</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>Activities</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>An automatically updated list of activities related to the equipment.</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>reverse(property=equipment)</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
+        <is>
           <t>cdf_cdm:CogniteActivity(version=v1)</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>assets</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>Assets</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>A list of assets the activity is related to.</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="G27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="6" t="n"/>
       <c r="I27" s="6" t="b">
         <v>1</v>
       </c>
       <c r="J27" s="6" t="n"/>
-      <c r="K27" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteActivity</t>
-        </is>
-      </c>
-      <c r="L27" s="6" t="inlineStr">
-        <is>
-          <t>assets</t>
-        </is>
-      </c>
+      <c r="K27" s="6" t="n"/>
+      <c r="L27" s="6" t="n"/>
       <c r="M27" s="6" t="n"/>
       <c r="N27" s="6" t="n"/>
       <c r="O27" s="6" t="n"/>
       <c r="P27" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/assets</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/activities</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity(version=v1)</t>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>equipment</t>
+          <t>timeSeries</t>
         </is>
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Time series</t>
         </is>
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>A list of equipment the activity is related to.</t>
+          <t>An automatically updated list of time series related to the equipment.</t>
         </is>
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>direct</t>
+          <t>reverse(property=equipment)</t>
         </is>
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6" t="b">
-        <v>0</v>
-      </c>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+        </is>
+      </c>
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="6" t="n"/>
       <c r="I28" s="6" t="b">
         <v>1</v>
       </c>
       <c r="J28" s="6" t="n"/>
-      <c r="K28" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteActivity</t>
-        </is>
-      </c>
-      <c r="L28" s="6" t="inlineStr">
-        <is>
-          <t>equipment</t>
-        </is>
-      </c>
+      <c r="K28" s="6" t="n"/>
+      <c r="L28" s="6" t="n"/>
       <c r="M28" s="6" t="n"/>
       <c r="N28" s="6" t="n"/>
       <c r="O28" s="6" t="n"/>
       <c r="P28" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/equipment</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/timeSeries</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteActivity(version=v1)</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
-        <is>
-          <t>timeSeries</t>
-        </is>
-      </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>Time series</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>A list of time series the activity is related to.</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="G29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="6" t="n"/>
-      <c r="K29" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteActivity</t>
-        </is>
-      </c>
-      <c r="L29" s="6" t="inlineStr">
-        <is>
-          <t>timeSeries</t>
-        </is>
-      </c>
-      <c r="M29" s="6" t="n"/>
-      <c r="N29" s="6" t="n"/>
-      <c r="O29" s="6" t="n"/>
-      <c r="P29" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/timeSeries</t>
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>Name of the instance</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="n"/>
+      <c r="K29" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteDescribable</t>
+        </is>
+      </c>
+      <c r="L29" s="7" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="M29" s="7" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="N29" s="7" t="n"/>
+      <c r="O29" s="7" t="n"/>
+      <c r="P29" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/name</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
         </is>
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>startTime</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C30" s="7" t="n"/>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>The actual start time of an activity (or similar that extends this)</t>
+          <t>Description of the instance</t>
         </is>
       </c>
       <c r="E30" s="7" t="n"/>
       <c r="F30" s="7" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G30" s="7" t="b">
@@ -5264,48 +6847,44 @@
       <c r="J30" s="7" t="n"/>
       <c r="K30" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable</t>
+          <t>cdf_cdm:CogniteDescribable</t>
         </is>
       </c>
       <c r="L30" s="7" t="inlineStr">
         <is>
-          <t>startTime</t>
-        </is>
-      </c>
-      <c r="M30" s="7" t="inlineStr">
-        <is>
-          <t>startTime</t>
-        </is>
-      </c>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M30" s="7" t="n"/>
       <c r="N30" s="7" t="n"/>
       <c r="O30" s="7" t="n"/>
       <c r="P30" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/startTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/description</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>endTime</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="C31" s="7" t="n"/>
       <c r="D31" s="7" t="inlineStr">
         <is>
-          <t>The actual end time of an activity (or similar that extends this)</t>
+          <t>Text based labels for generic use, limited to 1000</t>
         </is>
       </c>
       <c r="E31" s="7" t="n"/>
       <c r="F31" s="7" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G31" s="7" t="b">
@@ -5315,53 +6894,49 @@
         <v>0</v>
       </c>
       <c r="I31" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="7" t="n"/>
       <c r="K31" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable</t>
+          <t>cdf_cdm:CogniteDescribable</t>
         </is>
       </c>
       <c r="L31" s="7" t="inlineStr">
         <is>
-          <t>endTime</t>
-        </is>
-      </c>
-      <c r="M31" s="7" t="inlineStr">
-        <is>
-          <t>endTime</t>
-        </is>
-      </c>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="M31" s="7" t="n"/>
       <c r="N31" s="7" t="n"/>
       <c r="O31" s="7" t="n"/>
       <c r="P31" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/endTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/tags</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
         </is>
       </c>
       <c r="B32" s="7" t="inlineStr">
         <is>
-          <t>scheduledStartTime</t>
+          <t>aliases</t>
         </is>
       </c>
       <c r="C32" s="7" t="n"/>
       <c r="D32" s="7" t="inlineStr">
         <is>
-          <t>The planned start time of an activity (or similar that extends this)</t>
+          <t>Alternative names for the node</t>
         </is>
       </c>
       <c r="E32" s="7" t="n"/>
       <c r="F32" s="7" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G32" s="7" t="b">
@@ -5371,117 +6946,105 @@
         <v>0</v>
       </c>
       <c r="I32" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="7" t="n"/>
       <c r="K32" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable</t>
+          <t>cdf_cdm:CogniteDescribable</t>
         </is>
       </c>
       <c r="L32" s="7" t="inlineStr">
         <is>
-          <t>scheduledStartTime</t>
-        </is>
-      </c>
-      <c r="M32" s="7" t="inlineStr">
-        <is>
-          <t>scheduledStartTime</t>
-        </is>
-      </c>
+          <t>aliases</t>
+        </is>
+      </c>
+      <c r="M32" s="7" t="n"/>
       <c r="N32" s="7" t="n"/>
       <c r="O32" s="7" t="n"/>
       <c r="P32" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/scheduledStartTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/aliases</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="inlineStr">
-        <is>
-          <t>scheduledEndTime</t>
-        </is>
-      </c>
-      <c r="C33" s="7" t="n"/>
-      <c r="D33" s="7" t="inlineStr">
-        <is>
-          <t>The planned end time of an activity (or similar that extends this)</t>
-        </is>
-      </c>
-      <c r="E33" s="7" t="n"/>
-      <c r="F33" s="7" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="G33" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="n"/>
-      <c r="K33" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSchedulable</t>
-        </is>
-      </c>
-      <c r="L33" s="7" t="inlineStr">
-        <is>
-          <t>scheduledEndTime</t>
-        </is>
-      </c>
-      <c r="M33" s="7" t="inlineStr">
-        <is>
-          <t>scheduledEndTime</t>
-        </is>
-      </c>
-      <c r="N33" s="7" t="n"/>
-      <c r="O33" s="7" t="n"/>
-      <c r="P33" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/scheduledEndTime</t>
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>sourceId</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>Identifier from the source system</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="n"/>
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6" t="n"/>
+      <c r="K33" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSourceable</t>
+        </is>
+      </c>
+      <c r="L33" s="6" t="inlineStr">
+        <is>
+          <t>sourceId</t>
+        </is>
+      </c>
+      <c r="M33" s="6" t="inlineStr">
+        <is>
+          <t>sourceId</t>
+        </is>
+      </c>
+      <c r="N33" s="6" t="n"/>
+      <c r="O33" s="6" t="n"/>
+      <c r="P33" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceId</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="C34" s="6" t="inlineStr">
-        <is>
-          <t>Asset</t>
-        </is>
-      </c>
+          <t>sourceContext</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="n"/>
       <c r="D34" s="6" t="inlineStr">
         <is>
-          <t>The asset the equipment is related to.</t>
-        </is>
-      </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+          <t>Context of the source id. For systems where the sourceId is globally unique, the sourceContext is expected to not be set.</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="n"/>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G34" s="6" t="b">
@@ -5496,12 +7059,12 @@
       <c r="J34" s="6" t="n"/>
       <c r="K34" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment</t>
+          <t>cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="L34" s="6" t="inlineStr">
         <is>
-          <t>asset</t>
+          <t>sourceContext</t>
         </is>
       </c>
       <c r="M34" s="6" t="n"/>
@@ -5509,35 +7072,31 @@
       <c r="O34" s="6" t="n"/>
       <c r="P34" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/asset</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceContext</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>serialNumber</t>
-        </is>
-      </c>
-      <c r="C35" s="6" t="inlineStr">
-        <is>
-          <t>Serial number</t>
-        </is>
-      </c>
+          <t>sourceCreatedTime</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="n"/>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>The serial number of the equipment.</t>
+          <t>When the instance was created in source system (if available)</t>
         </is>
       </c>
       <c r="E35" s="6" t="n"/>
       <c r="F35" s="6" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="G35" s="6" t="b">
@@ -5552,52 +7111,48 @@
       <c r="J35" s="6" t="n"/>
       <c r="K35" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment</t>
+          <t>cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="L35" s="6" t="inlineStr">
         <is>
-          <t>serialNumber</t>
+          <t>sourceCreatedTime</t>
         </is>
       </c>
       <c r="M35" s="6" t="inlineStr">
         <is>
-          <t>serialNumber</t>
+          <t>sourceCreatedTime</t>
         </is>
       </c>
       <c r="N35" s="6" t="n"/>
       <c r="O35" s="6" t="n"/>
       <c r="P35" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/serialNumber</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceCreatedTime</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="C36" s="6" t="inlineStr">
-        <is>
-          <t>Manufacturer</t>
-        </is>
-      </c>
+          <t>sourceUpdatedTime</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="n"/>
       <c r="D36" s="6" t="inlineStr">
         <is>
-          <t>The manufacturer of the equipment.</t>
+          <t>When the instance was last updated in the source system (if available)</t>
         </is>
       </c>
       <c r="E36" s="6" t="n"/>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="G36" s="6" t="b">
@@ -5612,120 +7167,128 @@
       <c r="J36" s="6" t="n"/>
       <c r="K36" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment</t>
+          <t>cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="L36" s="6" t="inlineStr">
         <is>
-          <t>manufacturer</t>
+          <t>sourceUpdatedTime</t>
         </is>
       </c>
       <c r="M36" s="6" t="inlineStr">
         <is>
-          <t>manufacturer</t>
+          <t>sourceUpdatedTime</t>
         </is>
       </c>
       <c r="N36" s="6" t="n"/>
       <c r="O36" s="6" t="n"/>
       <c r="P36" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/manufacturer</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceUpdatedTime</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr">
         <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="C37" s="6" t="inlineStr">
-        <is>
-          <t>Activities</t>
-        </is>
-      </c>
+          <t>sourceCreatedUser</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n"/>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>An automatically updated list of activities related to the equipment.</t>
-        </is>
-      </c>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>reverse(property=equipment)</t>
-        </is>
-      </c>
+          <t>User identifier from the source system on who created the source data. This identifier is not guaranteed to match the user identifiers in CDF</t>
+        </is>
+      </c>
+      <c r="E37" s="6" t="n"/>
       <c r="F37" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity(version=v1)</t>
-        </is>
-      </c>
-      <c r="G37" s="6" t="n"/>
-      <c r="H37" s="6" t="n"/>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="I37" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="6" t="n"/>
-      <c r="K37" s="6" t="n"/>
-      <c r="L37" s="6" t="n"/>
+      <c r="K37" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSourceable</t>
+        </is>
+      </c>
+      <c r="L37" s="6" t="inlineStr">
+        <is>
+          <t>sourceCreatedUser</t>
+        </is>
+      </c>
       <c r="M37" s="6" t="n"/>
       <c r="N37" s="6" t="n"/>
       <c r="O37" s="6" t="n"/>
       <c r="P37" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/activities</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceCreatedUser</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>timeSeries</t>
-        </is>
-      </c>
-      <c r="C38" s="6" t="inlineStr">
-        <is>
-          <t>Time series</t>
-        </is>
-      </c>
+          <t>sourceUpdatedUser</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n"/>
       <c r="D38" s="6" t="inlineStr">
         <is>
-          <t>An automatically updated list of time series related to the equipment.</t>
-        </is>
-      </c>
-      <c r="E38" s="6" t="inlineStr">
-        <is>
-          <t>reverse(property=equipment)</t>
-        </is>
-      </c>
+          <t>User identifier from the source system on who last updated the source data. This identifier is not guaranteed to match the user identifiers in CDF</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="n"/>
       <c r="F38" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="G38" s="6" t="n"/>
-      <c r="H38" s="6" t="n"/>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="I38" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="6" t="n"/>
-      <c r="K38" s="6" t="n"/>
-      <c r="L38" s="6" t="n"/>
+      <c r="K38" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSourceable</t>
+        </is>
+      </c>
+      <c r="L38" s="6" t="inlineStr">
+        <is>
+          <t>sourceUpdatedUser</t>
+        </is>
+      </c>
       <c r="M38" s="6" t="n"/>
       <c r="N38" s="6" t="n"/>
       <c r="O38" s="6" t="n"/>
       <c r="P38" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/timeSeries</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceUpdatedUser</t>
         </is>
       </c>
     </row>
@@ -5818,22 +7381,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity(version=v1)</t>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Time series</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Represents activities. Activities typically happen over a period and have a start and end time.</t>
+          <t>Represents a series of data points in time order.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1),cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -5841,29 +7404,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+          <t>cdf_cdm:CogniteActivity(version=v1)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Equipment represents physical supplies or devices.</t>
+          <t>Represents activities. Activities typically happen over a period and have a start and end time.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1),cdf_cdm:CogniteSchedulable(version=v1)</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -5871,19 +7434,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asset</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The describable core concept is used as a standard way of holding the bare minimum of information about the instance</t>
+          <t>Assets represent systems that support industrial functions or processes. Assets are often called 'functional location'.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteVisualizable(version=v1),cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -5891,14 +7464,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The describable core concept is used as a standard way of holding the bare minimum of information about the instance</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -5906,29 +7484,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Time series</t>
+          <t>cdf_cdm:CogniteVisualizable(version=v1)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Represents a series of data points in time order.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>CogniteVisualizable defines the standard way to reference a related 3D resource</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -5936,29 +7504,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteVisualizable</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Asset</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Assets represent systems that support industrial functions or processes. Assets are often called 'functional location'.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteVisualizable(version=v1),cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -5966,19 +7519,29 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CogniteSchedulable represents the metadata about when an activity (or similar) starts and ends.</t>
+          <t>Equipment represents physical supplies or devices.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -5986,19 +7549,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteVisualizable(version=v1)</t>
+          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CogniteVisualizable defines the standard way to reference a related 3D resource</t>
+          <t>CogniteSchedulable represents the metadata about when an activity (or similar) starts and ends.</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -6006,7 +7569,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteVisualizable</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable</t>
         </is>
       </c>
     </row>
@@ -6085,12 +7648,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable</t>
+          <t>cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The describable core concept is used as a standard way of holding the bare minimum of information about the instance.</t>
+          <t>The CogniteSourceable core concept is used to standardize the way source information is stored.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -6102,17 +7665,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity</t>
+          <t>cdf_cdm:CogniteSchedulable</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Represent an activity</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable,cdf_cdm:CogniteSourceable,cdf_cdm:CogniteSchedulable</t>
+          <t>CogniteSchedulable represents the metadata about when an activity (or similar) starts and ends</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -6146,12 +7704,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
+          <t>cdf_cdm:CogniteAsset</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The asset is the bare bone representation of assets in our asset centric world</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable,cdf_cdm:CogniteSourceable</t>
+          <t>cdf_cdm:CogniteDescribable,cdf_cdm:CogniteVisualizable,cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -6163,12 +7726,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable</t>
+          <t>cdf_cdm:CogniteDescribable</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The CogniteSourceable core concept is used to standardize the way source information is stored.</t>
+          <t>The describable core concept is used as a standard way of holding the bare minimum of information about the instance.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -6180,17 +7743,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset</t>
+          <t>cdf_cdm:CogniteActivity</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The asset is the bare bone representation of assets in our asset centric world</t>
+          <t>Represent an activity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable,cdf_cdm:CogniteVisualizable,cdf_cdm:CogniteSourceable</t>
+          <t>cdf_cdm:CogniteDescribable,cdf_cdm:CogniteSourceable,cdf_cdm:CogniteSchedulable</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -6202,12 +7765,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CogniteSchedulable represents the metadata about when an activity (or similar) starts and ends</t>
+          <t>cdf_cdm:CogniteTimeSeries</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteDescribable,cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/docs/tutorials/data-modeling/wind-farm-data-model.xlsx
+++ b/docs/tutorials/data-modeling/wind-farm-data-model.xlsx
@@ -680,7 +680,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -697,7 +697,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -731,214 +731,214 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CognitePointCloudVolume.volumeType</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>Cylinder</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>Cylinder</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CognitePointCloudVolume.volumeType</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Box</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Box</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>Cognite3DGroup.groupType</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Station360</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Station360</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CogniteTimeSeries.type</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Time series with string data points.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>CogniteTimeSeries.type</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Time series with double floating point data points.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PointCloud</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PointCloud</t>
+          <t>CAD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Image360</t>
+          <t>PointCloud</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Image360</t>
+          <t>PointCloud</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cognite3DGroup.groupType</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Station360</t>
+          <t>Image360</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Station360</t>
+          <t>Image360</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CogniteTimeSeries.type</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>Queued</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Time series with string data points.</t>
+          <t>Queued</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CogniteTimeSeries.type</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Time series with double floating point data points.</t>
+          <t>Processing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CognitePointCloudVolume.volumeType</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cylinder</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cylinder</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CognitePointCloudVolume.volumeType</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Box</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Box</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4806,7 +4806,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4823,7 +4823,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.type</t>
+          <t>Cognite3DModel.type</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4840,214 +4840,214 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CognitePointCloudVolume.volumeType</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>Cylinder</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>Cylinder</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CognitePointCloudVolume.volumeType</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Box</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Box</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>Cognite3DGroup.groupType</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Station360</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Station360</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cognite3DRevision.status</t>
+          <t>CogniteTimeSeries.type</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Time series with string data points.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>CogniteTimeSeries.type</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Time series with double floating point data points.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PointCloud</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PointCloud</t>
+          <t>CAD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cognite3DModel.type</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Image360</t>
+          <t>PointCloud</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Image360</t>
+          <t>PointCloud</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cognite3DGroup.groupType</t>
+          <t>Cognite3DRevision.type</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Station360</t>
+          <t>Image360</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Station360</t>
+          <t>Image360</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CogniteTimeSeries.type</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>Queued</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Time series with string data points.</t>
+          <t>Queued</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CogniteTimeSeries.type</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Time series with double floating point data points.</t>
+          <t>Processing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CognitePointCloudVolume.volumeType</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cylinder</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cylinder</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CognitePointCloudVolume.volumeType</t>
+          <t>Cognite3DRevision.status</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Box</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Box</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5313,50 +5313,52 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+          <t>cdf_cdm:CogniteActivity(version=v1)</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>isStep</t>
+          <t>assets</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>Is step</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Specifies whether the time series is a step time series or not.</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="n"/>
+          <t>A list of assets the activity is related to.</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
       <c r="G3" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="n"/>
       <c r="K3" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
+          <t>cdf_cdm:CogniteActivity</t>
         </is>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>isStep</t>
+          <t>assets</t>
         </is>
       </c>
       <c r="M3" s="6" t="n"/>
@@ -5364,55 +5366,59 @@
       <c r="O3" s="6" t="n"/>
       <c r="P3" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/isStep</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/assets</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+          <t>cdf_cdm:CogniteActivity(version=v1)</t>
         </is>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>equipment</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Specifies the data type of the data points.</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="n"/>
+          <t>A list of equipment the activity is related to.</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>enum(collection=CogniteTimeSeries.type)</t>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
         </is>
       </c>
       <c r="G4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="6" t="n"/>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
+          <t>cdf_cdm:CogniteActivity</t>
         </is>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>equipment</t>
         </is>
       </c>
       <c r="M4" s="6" t="n"/>
@@ -5420,37 +5426,41 @@
       <c r="O4" s="6" t="n"/>
       <c r="P4" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/type</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/equipment</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
+          <t>cdf_cdm:CogniteActivity(version=v1)</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>timeSeries</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>Time series</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>A list of time series the activity is related to.</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
           <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>sourceUnit</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Source unit</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>The unit specified in the source system.</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="n"/>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
       <c r="G5" s="6" t="b">
         <v>1</v>
       </c>
@@ -5458,17 +5468,17 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="6" t="n"/>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
+          <t>cdf_cdm:CogniteActivity</t>
         </is>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>sourceUnit</t>
+          <t>timeSeries</t>
         </is>
       </c>
       <c r="M5" s="6" t="n"/>
@@ -5476,182 +5486,184 @@
       <c r="O5" s="6" t="n"/>
       <c r="P5" s="6" t="inlineStr">
         <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/timeSeries</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>isStep</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>Is step</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>Specifies whether the time series is a step time series or not.</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteTimeSeries</t>
+        </is>
+      </c>
+      <c r="L6" s="7" t="inlineStr">
+        <is>
+          <t>isStep</t>
+        </is>
+      </c>
+      <c r="M6" s="7" t="n"/>
+      <c r="N6" s="7" t="n"/>
+      <c r="O6" s="7" t="n"/>
+      <c r="P6" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/isStep</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>Specifies the data type of the data points.</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>enum(collection=CogniteTimeSeries.type)</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="n"/>
+      <c r="K7" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteTimeSeries</t>
+        </is>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="M7" s="7" t="n"/>
+      <c r="N7" s="7" t="n"/>
+      <c r="O7" s="7" t="n"/>
+      <c r="P7" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/type</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>sourceUnit</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>Source unit</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>The unit specified in the source system.</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="n"/>
+      <c r="K8" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteTimeSeries</t>
+        </is>
+      </c>
+      <c r="L8" s="7" t="inlineStr">
+        <is>
+          <t>sourceUnit</t>
+        </is>
+      </c>
+      <c r="M8" s="7" t="n"/>
+      <c r="N8" s="7" t="n"/>
+      <c r="O8" s="7" t="n"/>
+      <c r="P8" s="7" t="inlineStr">
+        <is>
           <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/sourceUnit</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>assets</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Assets</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>A list of assets the time series is related to.</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
-        </is>
-      </c>
-      <c r="L6" s="6" t="inlineStr">
-        <is>
-          <t>assets</t>
-        </is>
-      </c>
-      <c r="M6" s="6" t="n"/>
-      <c r="N6" s="6" t="n"/>
-      <c r="O6" s="6" t="n"/>
-      <c r="P6" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/assets</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>equipment</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>A list of equipment the time series is related to.</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="n"/>
-      <c r="K7" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries</t>
-        </is>
-      </c>
-      <c r="L7" s="6" t="inlineStr">
-        <is>
-          <t>equipment</t>
-        </is>
-      </c>
-      <c r="M7" s="6" t="n"/>
-      <c r="N7" s="6" t="n"/>
-      <c r="O7" s="6" t="n"/>
-      <c r="P7" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>Activities</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>An automatically updated list of activities the time series is related to.</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>reverse(property=timeSeries)</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteActivity(version=v1)</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="n"/>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="n"/>
-      <c r="K8" s="6" t="n"/>
-      <c r="L8" s="6" t="n"/>
-      <c r="M8" s="6" t="n"/>
-      <c r="N8" s="6" t="n"/>
-      <c r="O8" s="6" t="n"/>
-      <c r="P8" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/activities</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity(version=v1)</t>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -5666,7 +5678,7 @@
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>A list of assets the activity is related to.</t>
+          <t>A list of assets the time series is related to.</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
@@ -5691,7 +5703,7 @@
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity</t>
+          <t>cdf_cdm:CogniteTimeSeries</t>
         </is>
       </c>
       <c r="L9" s="7" t="inlineStr">
@@ -5704,14 +5716,14 @@
       <c r="O9" s="7" t="n"/>
       <c r="P9" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/assets</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/assets</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity(version=v1)</t>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -5726,7 +5738,7 @@
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>A list of equipment the activity is related to.</t>
+          <t>A list of equipment the time series is related to.</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
@@ -5751,7 +5763,7 @@
       <c r="J10" s="7" t="n"/>
       <c r="K10" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity</t>
+          <t>cdf_cdm:CogniteTimeSeries</t>
         </is>
       </c>
       <c r="L10" s="7" t="inlineStr">
@@ -5764,91 +5776,79 @@
       <c r="O10" s="7" t="n"/>
       <c r="P10" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/equipment</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/equipment</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>activities</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Activities</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>An automatically updated list of activities the time series is related to.</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>reverse(property=timeSeries)</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
           <t>cdf_cdm:CogniteActivity(version=v1)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>timeSeries</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Time series</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>A list of time series the activity is related to.</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="b">
-        <v>0</v>
-      </c>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="7" t="n"/>
-      <c r="K11" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteActivity</t>
-        </is>
-      </c>
-      <c r="L11" s="7" t="inlineStr">
-        <is>
-          <t>timeSeries</t>
-        </is>
-      </c>
+      <c r="K11" s="7" t="n"/>
+      <c r="L11" s="7" t="n"/>
       <c r="M11" s="7" t="n"/>
       <c r="N11" s="7" t="n"/>
       <c r="O11" s="7" t="n"/>
       <c r="P11" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity/timeSeries</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries/activities</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>startTime</t>
+          <t>sourceId</t>
         </is>
       </c>
       <c r="C12" s="6" t="n"/>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>The actual start time of an activity (or similar that extends this)</t>
+          <t>Identifier from the source system</t>
         </is>
       </c>
       <c r="E12" s="6" t="n"/>
       <c r="F12" s="6" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G12" s="6" t="b">
@@ -5863,48 +5863,48 @@
       <c r="J12" s="6" t="n"/>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable</t>
+          <t>cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>startTime</t>
+          <t>sourceId</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
         <is>
-          <t>startTime</t>
+          <t>sourceId</t>
         </is>
       </c>
       <c r="N12" s="6" t="n"/>
       <c r="O12" s="6" t="n"/>
       <c r="P12" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/startTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceId</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>endTime</t>
+          <t>sourceContext</t>
         </is>
       </c>
       <c r="C13" s="6" t="n"/>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>The actual end time of an activity (or similar that extends this)</t>
+          <t>Context of the source id. For systems where the sourceId is globally unique, the sourceContext is expected to not be set.</t>
         </is>
       </c>
       <c r="E13" s="6" t="n"/>
       <c r="F13" s="6" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G13" s="6" t="b">
@@ -5919,42 +5919,38 @@
       <c r="J13" s="6" t="n"/>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable</t>
+          <t>cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>endTime</t>
-        </is>
-      </c>
-      <c r="M13" s="6" t="inlineStr">
-        <is>
-          <t>endTime</t>
-        </is>
-      </c>
+          <t>sourceContext</t>
+        </is>
+      </c>
+      <c r="M13" s="6" t="n"/>
       <c r="N13" s="6" t="n"/>
       <c r="O13" s="6" t="n"/>
       <c r="P13" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/endTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceContext</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>scheduledStartTime</t>
+          <t>sourceCreatedTime</t>
         </is>
       </c>
       <c r="C14" s="6" t="n"/>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>The planned start time of an activity (or similar that extends this)</t>
+          <t>When the instance was created in source system (if available)</t>
         </is>
       </c>
       <c r="E14" s="6" t="n"/>
@@ -5975,42 +5971,42 @@
       <c r="J14" s="6" t="n"/>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable</t>
+          <t>cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="L14" s="6" t="inlineStr">
         <is>
-          <t>scheduledStartTime</t>
+          <t>sourceCreatedTime</t>
         </is>
       </c>
       <c r="M14" s="6" t="inlineStr">
         <is>
-          <t>scheduledStartTime</t>
+          <t>sourceCreatedTime</t>
         </is>
       </c>
       <c r="N14" s="6" t="n"/>
       <c r="O14" s="6" t="n"/>
       <c r="P14" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/scheduledStartTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceCreatedTime</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>scheduledEndTime</t>
+          <t>sourceUpdatedTime</t>
         </is>
       </c>
       <c r="C15" s="6" t="n"/>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>The planned end time of an activity (or similar that extends this)</t>
+          <t>When the instance was last updated in the source system (if available)</t>
         </is>
       </c>
       <c r="E15" s="6" t="n"/>
@@ -6031,144 +6027,128 @@
       <c r="J15" s="6" t="n"/>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable</t>
+          <t>cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>scheduledEndTime</t>
+          <t>sourceUpdatedTime</t>
         </is>
       </c>
       <c r="M15" s="6" t="inlineStr">
         <is>
-          <t>scheduledEndTime</t>
+          <t>sourceUpdatedTime</t>
         </is>
       </c>
       <c r="N15" s="6" t="n"/>
       <c r="O15" s="6" t="n"/>
       <c r="P15" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/scheduledEndTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceUpdatedTime</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>The parent of the asset.</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="n"/>
-      <c r="K16" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteAsset</t>
-        </is>
-      </c>
-      <c r="L16" s="7" t="inlineStr">
-        <is>
-          <t>assetHierarchy_parent</t>
-        </is>
-      </c>
-      <c r="M16" s="7" t="n"/>
-      <c r="N16" s="7" t="n"/>
-      <c r="O16" s="7" t="n"/>
-      <c r="P16" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/parent</t>
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>sourceCreatedUser</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>User identifier from the source system on who created the source data. This identifier is not guaranteed to match the user identifiers in CDF</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="n"/>
+      <c r="K16" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSourceable</t>
+        </is>
+      </c>
+      <c r="L16" s="6" t="inlineStr">
+        <is>
+          <t>sourceCreatedUser</t>
+        </is>
+      </c>
+      <c r="M16" s="6" t="n"/>
+      <c r="N16" s="6" t="n"/>
+      <c r="O16" s="6" t="n"/>
+      <c r="P16" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceCreatedUser</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>root</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>Root</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>An automatically updated reference to the top-level asset of the hierarchy.</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="n"/>
-      <c r="K17" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteAsset</t>
-        </is>
-      </c>
-      <c r="L17" s="7" t="inlineStr">
-        <is>
-          <t>assetHierarchy_root</t>
-        </is>
-      </c>
-      <c r="M17" s="7" t="n"/>
-      <c r="N17" s="7" t="n"/>
-      <c r="O17" s="7" t="n"/>
-      <c r="P17" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/root</t>
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>sourceUpdatedUser</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>User identifier from the source system on who last updated the source data. This identifier is not guaranteed to match the user identifiers in CDF</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="n"/>
+      <c r="K17" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSourceable</t>
+        </is>
+      </c>
+      <c r="L17" s="6" t="inlineStr">
+        <is>
+          <t>sourceUpdatedUser</t>
+        </is>
+      </c>
+      <c r="M17" s="6" t="n"/>
+      <c r="N17" s="6" t="n"/>
+      <c r="O17" s="6" t="n"/>
+      <c r="P17" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceUpdatedUser</t>
         </is>
       </c>
     </row>
@@ -6180,17 +6160,17 @@
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>path</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>Path</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr">
         <is>
-          <t>An automatically updated ordered list of this asset's ancestors, starting with the root asset. Enables subtree filtering to find all assets under a parent.</t>
+          <t>The parent of the asset.</t>
         </is>
       </c>
       <c r="E18" s="7" t="inlineStr">
@@ -6210,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="n"/>
       <c r="K18" s="7" t="inlineStr">
@@ -6220,7 +6200,7 @@
       </c>
       <c r="L18" s="7" t="inlineStr">
         <is>
-          <t>assetHierarchy_path</t>
+          <t>assetHierarchy_parent</t>
         </is>
       </c>
       <c r="M18" s="7" t="n"/>
@@ -6228,7 +6208,7 @@
       <c r="O18" s="7" t="n"/>
       <c r="P18" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/path</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/parent</t>
         </is>
       </c>
     </row>
@@ -6240,23 +6220,27 @@
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>pathLastUpdatedTime</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>Path last updated time</t>
+          <t>Root</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
         <is>
-          <t>The last time the path was updated for this asset.</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="n"/>
+          <t>An automatically updated reference to the top-level asset of the hierarchy.</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="F19" s="7" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
       <c r="G19" s="7" t="b">
@@ -6276,7 +6260,7 @@
       </c>
       <c r="L19" s="7" t="inlineStr">
         <is>
-          <t>assetHierarchy_path_last_updated_time</t>
+          <t>assetHierarchy_root</t>
         </is>
       </c>
       <c r="M19" s="7" t="n"/>
@@ -6284,7 +6268,7 @@
       <c r="O19" s="7" t="n"/>
       <c r="P19" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/pathLastUpdatedTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/root</t>
         </is>
       </c>
     </row>
@@ -6296,22 +6280,22 @@
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>path</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>Children</t>
+          <t>Path</t>
         </is>
       </c>
       <c r="D20" s="7" t="inlineStr">
         <is>
-          <t>An automatically updated list of assets with this asset as their parent.</t>
+          <t>An automatically updated ordered list of this asset's ancestors, starting with the root asset. Enables subtree filtering to find all assets under a parent.</t>
         </is>
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>reverse(property=parent)</t>
+          <t>direct</t>
         </is>
       </c>
       <c r="F20" s="7" t="inlineStr">
@@ -6319,20 +6303,32 @@
           <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="n"/>
+      <c r="G20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="I20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="7" t="n"/>
-      <c r="K20" s="7" t="n"/>
-      <c r="L20" s="7" t="n"/>
+      <c r="K20" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset</t>
+        </is>
+      </c>
+      <c r="L20" s="7" t="inlineStr">
+        <is>
+          <t>assetHierarchy_path</t>
+        </is>
+      </c>
       <c r="M20" s="7" t="n"/>
       <c r="N20" s="7" t="n"/>
       <c r="O20" s="7" t="n"/>
       <c r="P20" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/children</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/path</t>
         </is>
       </c>
     </row>
@@ -6344,43 +6340,51 @@
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>equipment</t>
+          <t>pathLastUpdatedTime</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Path last updated time</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
         <is>
-          <t>An automatically updated list of equipment related to the asset.</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>reverse(property=asset)</t>
-        </is>
-      </c>
+          <t>The last time the path was updated for this asset.</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="n"/>
       <c r="F21" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="n"/>
-      <c r="H21" s="7" t="n"/>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="I21" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="n"/>
-      <c r="K21" s="7" t="n"/>
-      <c r="L21" s="7" t="n"/>
+      <c r="K21" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset</t>
+        </is>
+      </c>
+      <c r="L21" s="7" t="inlineStr">
+        <is>
+          <t>assetHierarchy_path_last_updated_time</t>
+        </is>
+      </c>
       <c r="M21" s="7" t="n"/>
       <c r="N21" s="7" t="n"/>
       <c r="O21" s="7" t="n"/>
       <c r="P21" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/equipment</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/pathLastUpdatedTime</t>
         </is>
       </c>
     </row>
@@ -6392,27 +6396,27 @@
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>children</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>Activities</t>
+          <t>Children</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
         <is>
-          <t>An automatically updated list of activities related to the asset.</t>
+          <t>An automatically updated list of assets with this asset as their parent.</t>
         </is>
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>reverse(property=assets)</t>
+          <t>reverse(property=parent)</t>
         </is>
       </c>
       <c r="F22" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity(version=v1)</t>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
       <c r="G22" s="7" t="n"/>
@@ -6428,7 +6432,7 @@
       <c r="O22" s="7" t="n"/>
       <c r="P22" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/activities</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/children</t>
         </is>
       </c>
     </row>
@@ -6440,27 +6444,27 @@
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>timeSeries</t>
+          <t>equipment</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>An automatically updated list of time series related to the asset.</t>
+          <t>An automatically updated list of equipment related to the asset.</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>reverse(property=assets)</t>
+          <t>reverse(property=asset)</t>
         </is>
       </c>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
         </is>
       </c>
       <c r="G23" s="7" t="n"/>
@@ -6476,127 +6480,103 @@
       <c r="O23" s="7" t="n"/>
       <c r="P23" s="7" t="inlineStr">
         <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>activities</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>Activities</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>An automatically updated list of activities related to the asset.</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>reverse(property=assets)</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteActivity(version=v1)</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="n"/>
+      <c r="H24" s="7" t="n"/>
+      <c r="I24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7" t="n"/>
+      <c r="K24" s="7" t="n"/>
+      <c r="L24" s="7" t="n"/>
+      <c r="M24" s="7" t="n"/>
+      <c r="N24" s="7" t="n"/>
+      <c r="O24" s="7" t="n"/>
+      <c r="P24" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/activities</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>timeSeries</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>Time series</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>An automatically updated list of time series related to the asset.</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>reverse(property=assets)</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+        </is>
+      </c>
+      <c r="G25" s="7" t="n"/>
+      <c r="H25" s="7" t="n"/>
+      <c r="I25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7" t="n"/>
+      <c r="K25" s="7" t="n"/>
+      <c r="L25" s="7" t="n"/>
+      <c r="M25" s="7" t="n"/>
+      <c r="N25" s="7" t="n"/>
+      <c r="O25" s="7" t="n"/>
+      <c r="P25" s="7" t="inlineStr">
+        <is>
           <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset/timeSeries</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>Asset</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
-        <is>
-          <t>The asset the equipment is related to.</t>
-        </is>
-      </c>
-      <c r="E24" s="6" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="G24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="n"/>
-      <c r="K24" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteEquipment</t>
-        </is>
-      </c>
-      <c r="L24" s="6" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="M24" s="6" t="n"/>
-      <c r="N24" s="6" t="n"/>
-      <c r="O24" s="6" t="n"/>
-      <c r="P24" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/asset</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>serialNumber</t>
-        </is>
-      </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>Serial number</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="inlineStr">
-        <is>
-          <t>The serial number of the equipment.</t>
-        </is>
-      </c>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6" t="n"/>
-      <c r="K25" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteEquipment</t>
-        </is>
-      </c>
-      <c r="L25" s="6" t="inlineStr">
-        <is>
-          <t>serialNumber</t>
-        </is>
-      </c>
-      <c r="M25" s="6" t="inlineStr">
-        <is>
-          <t>serialNumber</t>
-        </is>
-      </c>
-      <c r="N25" s="6" t="n"/>
-      <c r="O25" s="6" t="n"/>
-      <c r="P25" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/serialNumber</t>
         </is>
       </c>
     </row>
@@ -6608,23 +6588,27 @@
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>manufacturer</t>
+          <t>asset</t>
         </is>
       </c>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>Manufacturer</t>
+          <t>Asset</t>
         </is>
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
-          <t>The manufacturer of the equipment.</t>
-        </is>
-      </c>
-      <c r="E26" s="6" t="n"/>
+          <t>The asset the equipment is related to.</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
       <c r="G26" s="6" t="b">
@@ -6644,19 +6628,15 @@
       </c>
       <c r="L26" s="6" t="inlineStr">
         <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="M26" s="6" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="M26" s="6" t="n"/>
       <c r="N26" s="6" t="n"/>
       <c r="O26" s="6" t="n"/>
       <c r="P26" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/manufacturer</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/asset</t>
         </is>
       </c>
     </row>
@@ -6668,43 +6648,55 @@
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>serialNumber</t>
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>Activities</t>
+          <t>Serial number</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>An automatically updated list of activities related to the equipment.</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>reverse(property=equipment)</t>
-        </is>
-      </c>
+          <t>The serial number of the equipment.</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity(version=v1)</t>
-        </is>
-      </c>
-      <c r="G27" s="6" t="n"/>
-      <c r="H27" s="6" t="n"/>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="I27" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="6" t="n"/>
-      <c r="K27" s="6" t="n"/>
-      <c r="L27" s="6" t="n"/>
-      <c r="M27" s="6" t="n"/>
+      <c r="K27" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment</t>
+        </is>
+      </c>
+      <c r="L27" s="6" t="inlineStr">
+        <is>
+          <t>serialNumber</t>
+        </is>
+      </c>
+      <c r="M27" s="6" t="inlineStr">
+        <is>
+          <t>serialNumber</t>
+        </is>
+      </c>
       <c r="N27" s="6" t="n"/>
       <c r="O27" s="6" t="n"/>
       <c r="P27" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/activities</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/serialNumber</t>
         </is>
       </c>
     </row>
@@ -6716,175 +6708,175 @@
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>timeSeries</t>
+          <t>manufacturer</t>
         </is>
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Manufacturer</t>
         </is>
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>An automatically updated list of time series related to the equipment.</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>reverse(property=equipment)</t>
-        </is>
-      </c>
+          <t>The manufacturer of the equipment.</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="n"/>
-      <c r="H28" s="6" t="n"/>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="I28" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="6" t="n"/>
-      <c r="K28" s="6" t="n"/>
-      <c r="L28" s="6" t="n"/>
-      <c r="M28" s="6" t="n"/>
+      <c r="K28" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment</t>
+        </is>
+      </c>
+      <c r="L28" s="6" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="M28" s="6" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
       <c r="N28" s="6" t="n"/>
       <c r="O28" s="6" t="n"/>
       <c r="P28" s="6" t="inlineStr">
         <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/manufacturer</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>activities</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>Activities</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>An automatically updated list of activities related to the equipment.</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>reverse(property=equipment)</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteActivity(version=v1)</t>
+        </is>
+      </c>
+      <c r="G29" s="6" t="n"/>
+      <c r="H29" s="6" t="n"/>
+      <c r="I29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6" t="n"/>
+      <c r="K29" s="6" t="n"/>
+      <c r="L29" s="6" t="n"/>
+      <c r="M29" s="6" t="n"/>
+      <c r="N29" s="6" t="n"/>
+      <c r="O29" s="6" t="n"/>
+      <c r="P29" s="6" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/activities</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>timeSeries</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>Time series</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
+        <is>
+          <t>An automatically updated list of time series related to the equipment.</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>reverse(property=equipment)</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+        </is>
+      </c>
+      <c r="G30" s="6" t="n"/>
+      <c r="H30" s="6" t="n"/>
+      <c r="I30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6" t="n"/>
+      <c r="K30" s="6" t="n"/>
+      <c r="L30" s="6" t="n"/>
+      <c r="M30" s="6" t="n"/>
+      <c r="N30" s="6" t="n"/>
+      <c r="O30" s="6" t="n"/>
+      <c r="P30" s="6" t="inlineStr">
+        <is>
           <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment/timeSeries</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>Name of the instance</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G29" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="n"/>
-      <c r="K29" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable</t>
-        </is>
-      </c>
-      <c r="L29" s="7" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="M29" s="7" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="N29" s="7" t="n"/>
-      <c r="O29" s="7" t="n"/>
-      <c r="P29" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/name</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="inlineStr">
-        <is>
-          <t>Description of the instance</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G30" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="n"/>
-      <c r="K30" s="7" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable</t>
-        </is>
-      </c>
-      <c r="L30" s="7" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="M30" s="7" t="n"/>
-      <c r="N30" s="7" t="n"/>
-      <c r="O30" s="7" t="n"/>
-      <c r="P30" s="7" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/description</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
+          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>tags</t>
+          <t>startTime</t>
         </is>
       </c>
       <c r="C31" s="7" t="n"/>
       <c r="D31" s="7" t="inlineStr">
         <is>
-          <t>Text based labels for generic use, limited to 1000</t>
+          <t>The actual start time of an activity (or similar that extends this)</t>
         </is>
       </c>
       <c r="E31" s="7" t="n"/>
       <c r="F31" s="7" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="G31" s="7" t="b">
@@ -6894,49 +6886,53 @@
         <v>0</v>
       </c>
       <c r="I31" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="n"/>
       <c r="K31" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable</t>
+          <t>cdf_cdm:CogniteSchedulable</t>
         </is>
       </c>
       <c r="L31" s="7" t="inlineStr">
         <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="M31" s="7" t="n"/>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="M31" s="7" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
       <c r="N31" s="7" t="n"/>
       <c r="O31" s="7" t="n"/>
       <c r="P31" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/tags</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/startTime</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
+          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
         </is>
       </c>
       <c r="B32" s="7" t="inlineStr">
         <is>
-          <t>aliases</t>
+          <t>endTime</t>
         </is>
       </c>
       <c r="C32" s="7" t="n"/>
       <c r="D32" s="7" t="inlineStr">
         <is>
-          <t>Alternative names for the node</t>
+          <t>The actual end time of an activity (or similar that extends this)</t>
         </is>
       </c>
       <c r="E32" s="7" t="n"/>
       <c r="F32" s="7" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="G32" s="7" t="b">
@@ -6946,157 +6942,165 @@
         <v>0</v>
       </c>
       <c r="I32" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="n"/>
       <c r="K32" s="7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable</t>
+          <t>cdf_cdm:CogniteSchedulable</t>
         </is>
       </c>
       <c r="L32" s="7" t="inlineStr">
         <is>
-          <t>aliases</t>
-        </is>
-      </c>
-      <c r="M32" s="7" t="n"/>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="M32" s="7" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
       <c r="N32" s="7" t="n"/>
       <c r="O32" s="7" t="n"/>
       <c r="P32" s="7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/aliases</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/endTime</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="inlineStr">
-        <is>
-          <t>sourceId</t>
-        </is>
-      </c>
-      <c r="C33" s="6" t="n"/>
-      <c r="D33" s="6" t="inlineStr">
-        <is>
-          <t>Identifier from the source system</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="n"/>
-      <c r="F33" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6" t="n"/>
-      <c r="K33" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable</t>
-        </is>
-      </c>
-      <c r="L33" s="6" t="inlineStr">
-        <is>
-          <t>sourceId</t>
-        </is>
-      </c>
-      <c r="M33" s="6" t="inlineStr">
-        <is>
-          <t>sourceId</t>
-        </is>
-      </c>
-      <c r="N33" s="6" t="n"/>
-      <c r="O33" s="6" t="n"/>
-      <c r="P33" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceId</t>
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>scheduledStartTime</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="n"/>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>The planned start time of an activity (or similar that extends this)</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="n"/>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="n"/>
+      <c r="K33" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable</t>
+        </is>
+      </c>
+      <c r="L33" s="7" t="inlineStr">
+        <is>
+          <t>scheduledStartTime</t>
+        </is>
+      </c>
+      <c r="M33" s="7" t="inlineStr">
+        <is>
+          <t>scheduledStartTime</t>
+        </is>
+      </c>
+      <c r="N33" s="7" t="n"/>
+      <c r="O33" s="7" t="n"/>
+      <c r="P33" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/scheduledStartTime</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
-        <is>
-          <t>sourceContext</t>
-        </is>
-      </c>
-      <c r="C34" s="6" t="n"/>
-      <c r="D34" s="6" t="inlineStr">
-        <is>
-          <t>Context of the source id. For systems where the sourceId is globally unique, the sourceContext is expected to not be set.</t>
-        </is>
-      </c>
-      <c r="E34" s="6" t="n"/>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6" t="n"/>
-      <c r="K34" s="6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteSourceable</t>
-        </is>
-      </c>
-      <c r="L34" s="6" t="inlineStr">
-        <is>
-          <t>sourceContext</t>
-        </is>
-      </c>
-      <c r="M34" s="6" t="n"/>
-      <c r="N34" s="6" t="n"/>
-      <c r="O34" s="6" t="n"/>
-      <c r="P34" s="6" t="inlineStr">
-        <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceContext</t>
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>scheduledEndTime</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="n"/>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>The planned end time of an activity (or similar that extends this)</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="n"/>
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G34" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="n"/>
+      <c r="K34" s="7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteSchedulable</t>
+        </is>
+      </c>
+      <c r="L34" s="7" t="inlineStr">
+        <is>
+          <t>scheduledEndTime</t>
+        </is>
+      </c>
+      <c r="M34" s="7" t="inlineStr">
+        <is>
+          <t>scheduledEndTime</t>
+        </is>
+      </c>
+      <c r="N34" s="7" t="n"/>
+      <c r="O34" s="7" t="n"/>
+      <c r="P34" s="7" t="inlineStr">
+        <is>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable/scheduledEndTime</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>sourceCreatedTime</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C35" s="6" t="n"/>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>When the instance was created in source system (if available)</t>
+          <t>Name of the instance</t>
         </is>
       </c>
       <c r="E35" s="6" t="n"/>
       <c r="F35" s="6" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G35" s="6" t="b">
@@ -7111,48 +7115,48 @@
       <c r="J35" s="6" t="n"/>
       <c r="K35" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable</t>
+          <t>cdf_cdm:CogniteDescribable</t>
         </is>
       </c>
       <c r="L35" s="6" t="inlineStr">
         <is>
-          <t>sourceCreatedTime</t>
+          <t>name</t>
         </is>
       </c>
       <c r="M35" s="6" t="inlineStr">
         <is>
-          <t>sourceCreatedTime</t>
+          <t>name</t>
         </is>
       </c>
       <c r="N35" s="6" t="n"/>
       <c r="O35" s="6" t="n"/>
       <c r="P35" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceCreatedTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/name</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>sourceUpdatedTime</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C36" s="6" t="n"/>
       <c r="D36" s="6" t="inlineStr">
         <is>
-          <t>When the instance was last updated in the source system (if available)</t>
+          <t>Description of the instance</t>
         </is>
       </c>
       <c r="E36" s="6" t="n"/>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G36" s="6" t="b">
@@ -7167,42 +7171,38 @@
       <c r="J36" s="6" t="n"/>
       <c r="K36" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable</t>
+          <t>cdf_cdm:CogniteDescribable</t>
         </is>
       </c>
       <c r="L36" s="6" t="inlineStr">
         <is>
-          <t>sourceUpdatedTime</t>
-        </is>
-      </c>
-      <c r="M36" s="6" t="inlineStr">
-        <is>
-          <t>sourceUpdatedTime</t>
-        </is>
-      </c>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M36" s="6" t="n"/>
       <c r="N36" s="6" t="n"/>
       <c r="O36" s="6" t="n"/>
       <c r="P36" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceUpdatedTime</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/description</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr">
         <is>
-          <t>sourceCreatedUser</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="C37" s="6" t="n"/>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>User identifier from the source system on who created the source data. This identifier is not guaranteed to match the user identifiers in CDF</t>
+          <t>Text based labels for generic use, limited to 1000</t>
         </is>
       </c>
       <c r="E37" s="6" t="n"/>
@@ -7218,17 +7218,17 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="6" t="n"/>
       <c r="K37" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable</t>
+          <t>cdf_cdm:CogniteDescribable</t>
         </is>
       </c>
       <c r="L37" s="6" t="inlineStr">
         <is>
-          <t>sourceCreatedUser</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="M37" s="6" t="n"/>
@@ -7236,25 +7236,25 @@
       <c r="O37" s="6" t="n"/>
       <c r="P37" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceCreatedUser</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/tags</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>sourceUpdatedUser</t>
+          <t>aliases</t>
         </is>
       </c>
       <c r="C38" s="6" t="n"/>
       <c r="D38" s="6" t="inlineStr">
         <is>
-          <t>User identifier from the source system on who last updated the source data. This identifier is not guaranteed to match the user identifiers in CDF</t>
+          <t>Alternative names for the node</t>
         </is>
       </c>
       <c r="E38" s="6" t="n"/>
@@ -7270,17 +7270,17 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="6" t="n"/>
       <c r="K38" s="6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable</t>
+          <t>cdf_cdm:CogniteDescribable</t>
         </is>
       </c>
       <c r="L38" s="6" t="inlineStr">
         <is>
-          <t>sourceUpdatedUser</t>
+          <t>aliases</t>
         </is>
       </c>
       <c r="M38" s="6" t="n"/>
@@ -7288,7 +7288,7 @@
       <c r="O38" s="6" t="n"/>
       <c r="P38" s="6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable/sourceUpdatedUser</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable/aliases</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+          <t>cdf_cdm:CogniteAsset(version=v1)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Asset</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Represents a series of data points in time order.</t>
+          <t>Assets represent systems that support industrial functions or processes. Assets are often called 'functional location'.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteVisualizable(version=v1),cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -7404,29 +7404,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteActivity(version=v1)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Represents activities. Activities typically happen over a period and have a start and end time.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1),cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -7434,29 +7419,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset(version=v1)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Asset</t>
+          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Assets represent systems that support industrial functions or processes. Assets are often called 'functional location'.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteVisualizable(version=v1),cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>CogniteSchedulable represents the metadata about when an activity (or similar) starts and ends.</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -7464,19 +7439,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteAsset</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
+          <t>cdf_cdm:CogniteVisualizable(version=v1)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The describable core concept is used as a standard way of holding the bare minimum of information about the instance</t>
+          <t>CogniteVisualizable defines the standard way to reference a related 3D resource</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -7484,19 +7459,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteVisualizable</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteVisualizable(version=v1)</t>
+          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CogniteVisualizable defines the standard way to reference a related 3D resource</t>
+          <t>Equipment represents physical supplies or devices.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -7504,14 +7489,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteVisualizable</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteTimeSeries(version=v1)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Time series</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Represents a series of data points in time order.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -7519,29 +7519,29 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSourceable</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteTimeSeries</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment(version=v1)</t>
+          <t>cdf_cdm:CogniteActivity(version=v1)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Equipment represents physical supplies or devices.</t>
+          <t>Represents activities. Activities typically happen over a period and have a start and end time.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1),cdf_cdm:CogniteSourceable(version=v1),cdf_cdm:CogniteSchedulable(version=v1)</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -7549,19 +7549,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteEquipment</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteActivity</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable(version=v1)</t>
+          <t>cdf_cdm:CogniteDescribable(version=v1)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CogniteSchedulable represents the metadata about when an activity (or similar) starts and ends.</t>
+          <t>The describable core concept is used as a standard way of holding the bare minimum of information about the instance</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteSchedulable</t>
+          <t>http://purl.org/cognite/neat/data-model/verified/physical/cdf_cdm/CogniteCore/v1/CogniteDescribable</t>
         </is>
       </c>
     </row>
@@ -7648,12 +7648,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSourceable</t>
+          <t>cdf_cdm:CogniteDescribable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The CogniteSourceable core concept is used to standardize the way source information is stored.</t>
+          <t>The describable core concept is used as a standard way of holding the bare minimum of information about the instance.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -7665,12 +7665,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteSchedulable</t>
+          <t>cdf_cdm:CogniteAsset</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CogniteSchedulable represents the metadata about when an activity (or similar) starts and ends</t>
+          <t>The asset is the bare bone representation of assets in our asset centric world</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteDescribable,cdf_cdm:CogniteVisualizable,cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -7682,17 +7687,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteEquipment</t>
+          <t>cdf_cdm:CogniteSchedulable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Represent a physical piece of equipment</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable,cdf_cdm:CogniteSourceable</t>
+          <t>CogniteSchedulable represents the metadata about when an activity (or similar) starts and ends</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -7704,39 +7704,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteAsset</t>
+          <t>cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The asset is the bare bone representation of assets in our asset centric world</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>cdf_cdm:CogniteDescribable,cdf_cdm:CogniteVisualizable,cdf_cdm:CogniteSourceable</t>
+          <t>The CogniteSourceable core concept is used to standardize the way source information is stored.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>node</t>
+          <t>all</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cdf_cdm:CogniteDescribable</t>
+          <t>cdf_cdm:CogniteEquipment</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The describable core concept is used as a standard way of holding the bare minimum of information about the instance.</t>
+          <t>Represent a physical piece of equipment</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cdf_cdm:CogniteDescribable,cdf_cdm:CogniteSourceable</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>node</t>
         </is>
       </c>
     </row>
